--- a/dynamic_tags/tag_2809_list.xlsx
+++ b/dynamic_tags/tag_2809_list.xlsx
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A1303"/>
+  <dimension ref="A1:A1300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -392,47 +392,47 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>38895</v>
+        <v>71458</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>71458</v>
+        <v>85481</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>85481</v>
+        <v>86459</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>86459</v>
+        <v>88130</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>88924</v>
+        <v>89729</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>89729</v>
+        <v>90727</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>90727</v>
+        <v>91103</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>91103</v>
+        <v>102676</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>102676</v>
+        <v>106192</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -442,7 +442,7 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>119402</v>
+        <v>119295</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -467,17 +467,17 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>121059</v>
+        <v>122205</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>122205</v>
+        <v>122819</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>122819</v>
+        <v>122854</v>
       </c>
     </row>
     <row r="21" spans="1:1">
@@ -522,12 +522,12 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>153749</v>
+        <v>151841</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>153952</v>
+        <v>153749</v>
       </c>
     </row>
     <row r="31" spans="1:1">
@@ -547,117 +547,117 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>162495</v>
+        <v>158914</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>165492</v>
+        <v>162495</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>175405</v>
+        <v>165492</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>186065</v>
+        <v>175405</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>188331</v>
+        <v>176552</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>188416</v>
+        <v>186065</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>195004</v>
+        <v>187712</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>195558</v>
+        <v>188331</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>197087</v>
+        <v>188416</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>199572</v>
+        <v>193987</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>207041</v>
+        <v>195004</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>208955</v>
+        <v>195558</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>210147</v>
+        <v>199572</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>212269</v>
+        <v>207041</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>213463</v>
+        <v>208955</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>213486</v>
+        <v>210147</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>214832</v>
+        <v>213463</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>215386</v>
+        <v>213486</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>215476</v>
+        <v>215386</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>216968</v>
+        <v>215476</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>217671</v>
+        <v>216968</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>217686</v>
+        <v>217671</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>217762</v>
+        <v>217686</v>
       </c>
     </row>
     <row r="57" spans="1:1">
@@ -702,47 +702,47 @@
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>239203</v>
+        <v>234045</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>240050</v>
+        <v>239203</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>240711</v>
+        <v>240050</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>241397</v>
+        <v>240711</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>241844</v>
+        <v>241397</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>242612</v>
+        <v>241844</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>242912</v>
+        <v>242612</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>242959</v>
+        <v>242912</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>243088</v>
+        <v>242959</v>
       </c>
     </row>
     <row r="74" spans="1:1">
@@ -767,22 +767,22 @@
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>244121</v>
+        <v>244875</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>244875</v>
+        <v>245075</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>245075</v>
+        <v>246072</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>246072</v>
+        <v>246131</v>
       </c>
     </row>
     <row r="82" spans="1:1">
@@ -862,17 +862,17 @@
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>251495</v>
+        <v>251162</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>251779</v>
+        <v>251495</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>252366</v>
+        <v>251779</v>
       </c>
     </row>
     <row r="100" spans="1:1">
@@ -887,7 +887,7 @@
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>253271</v>
+        <v>253107</v>
       </c>
     </row>
     <row r="103" spans="1:1">
@@ -902,7 +902,7 @@
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>253792</v>
+        <v>253535</v>
       </c>
     </row>
     <row r="106" spans="1:1">
@@ -917,47 +917,47 @@
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>254162</v>
+        <v>254184</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>254184</v>
+        <v>254330</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>254330</v>
+        <v>254371</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>254371</v>
+        <v>254587</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>254587</v>
+        <v>254674</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>254674</v>
+        <v>255001</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>255001</v>
+        <v>255140</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>255140</v>
+        <v>255188</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>255188</v>
+        <v>255305</v>
       </c>
     </row>
     <row r="117" spans="1:1">
@@ -972,5097 +972,5097 @@
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>256888</v>
+        <v>256917</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>256917</v>
+        <v>257120</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>257120</v>
+        <v>257132</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>257132</v>
+        <v>257162</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>257162</v>
+        <v>257219</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>257219</v>
+        <v>257373</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>257373</v>
+        <v>257636</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>257636</v>
+        <v>258140</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>258140</v>
+        <v>258460</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>258226</v>
+        <v>258495</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>258460</v>
+        <v>258830</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>258495</v>
+        <v>258894</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>258830</v>
+        <v>259385</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>258894</v>
+        <v>259472</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>259385</v>
+        <v>259977</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>259472</v>
+        <v>260073</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>259977</v>
+        <v>260304</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>260073</v>
+        <v>260586</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>260304</v>
+        <v>260798</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>260586</v>
+        <v>261805</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>260606</v>
+        <v>261906</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>260798</v>
+        <v>261947</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>261805</v>
+        <v>263670</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
-        <v>261906</v>
+        <v>263794</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <v>261947</v>
+        <v>264173</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <v>263436</v>
+        <v>264195</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
-        <v>263670</v>
+        <v>265150</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <v>263794</v>
+        <v>265322</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <v>264173</v>
+        <v>265369</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <v>265150</v>
+        <v>266113</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <v>265322</v>
+        <v>266708</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <v>265369</v>
+        <v>267117</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <v>265372</v>
+        <v>267176</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
-        <v>266113</v>
+        <v>267783</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <v>266708</v>
+        <v>268086</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <v>267117</v>
+        <v>268406</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <v>267176</v>
+        <v>268421</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <v>267783</v>
+        <v>268434</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <v>268086</v>
+        <v>268508</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <v>268421</v>
+        <v>269037</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <v>268434</v>
+        <v>269157</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <v>268508</v>
+        <v>269159</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
-        <v>268924</v>
+        <v>269916</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
-        <v>269037</v>
+        <v>270022</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
-        <v>269157</v>
+        <v>270036</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
-        <v>269159</v>
+        <v>270120</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
-        <v>269854</v>
+        <v>270125</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
-        <v>269916</v>
+        <v>270503</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
-        <v>270022</v>
+        <v>270540</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
-        <v>270036</v>
+        <v>270575</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
-        <v>270120</v>
+        <v>270914</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
-        <v>270125</v>
+        <v>270932</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
-        <v>270503</v>
+        <v>271488</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <v>270540</v>
+        <v>271608</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
-        <v>270914</v>
+        <v>271627</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
-        <v>270932</v>
+        <v>271646</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
-        <v>271488</v>
+        <v>271739</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
-        <v>271608</v>
+        <v>271775</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
-        <v>271627</v>
+        <v>271840</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
-        <v>271646</v>
+        <v>271924</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
-        <v>271739</v>
+        <v>271971</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
-        <v>271775</v>
+        <v>272349</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
-        <v>271797</v>
+        <v>272399</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
-        <v>271840</v>
+        <v>273763</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
-        <v>271924</v>
+        <v>273959</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
-        <v>271971</v>
+        <v>274048</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
-        <v>272349</v>
+        <v>274479</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
-        <v>272353</v>
+        <v>275278</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
-        <v>272399</v>
+        <v>275624</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
-        <v>273763</v>
+        <v>275790</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
-        <v>274479</v>
+        <v>275891</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
-        <v>275278</v>
+        <v>275962</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
-        <v>275624</v>
+        <v>276054</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
-        <v>275790</v>
+        <v>276565</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
-        <v>275812</v>
+        <v>276715</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
-        <v>275891</v>
+        <v>277291</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
-        <v>275962</v>
+        <v>277453</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
-        <v>276054</v>
+        <v>277998</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
-        <v>276565</v>
+        <v>278613</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
-        <v>276715</v>
+        <v>278983</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
-        <v>277291</v>
+        <v>279824</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
-        <v>277453</v>
+        <v>281197</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
-        <v>277612</v>
+        <v>281514</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
-        <v>277998</v>
+        <v>281671</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
-        <v>278983</v>
+        <v>281880</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
-        <v>279824</v>
+        <v>284530</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
-        <v>281197</v>
+        <v>284753</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
-        <v>281514</v>
+        <v>285769</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
-        <v>281671</v>
+        <v>286200</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
-        <v>281880</v>
+        <v>286756</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
-        <v>281906</v>
+        <v>286955</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
-        <v>283064</v>
+        <v>287816</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
-        <v>283715</v>
+        <v>288064</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
-        <v>284530</v>
+        <v>288218</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
-        <v>284753</v>
+        <v>288633</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
-        <v>285769</v>
+        <v>290105</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
-        <v>286200</v>
+        <v>290196</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
-        <v>286756</v>
+        <v>290261</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
-        <v>286955</v>
+        <v>290278</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
-        <v>287816</v>
+        <v>290731</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
-        <v>288064</v>
+        <v>290798</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
-        <v>288633</v>
+        <v>290982</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
-        <v>290105</v>
+        <v>291038</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
-        <v>290196</v>
+        <v>291680</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
-        <v>290261</v>
+        <v>291816</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
-        <v>290278</v>
+        <v>291822</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
-        <v>290731</v>
+        <v>291979</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
-        <v>290779</v>
+        <v>292276</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
-        <v>290798</v>
+        <v>292370</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
-        <v>290982</v>
+        <v>292572</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
-        <v>291016</v>
+        <v>293200</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
-        <v>291038</v>
+        <v>293585</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
-        <v>291816</v>
+        <v>293597</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
-        <v>291979</v>
+        <v>293841</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233">
-        <v>292276</v>
+        <v>293913</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234">
-        <v>292572</v>
+        <v>294528</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235">
-        <v>293200</v>
+        <v>294664</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236">
-        <v>293585</v>
+        <v>294856</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237">
-        <v>293597</v>
+        <v>295459</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
-        <v>293841</v>
+        <v>295854</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
-        <v>293913</v>
+        <v>295971</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240">
-        <v>294364</v>
+        <v>296798</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
-        <v>294528</v>
+        <v>297312</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242">
-        <v>294664</v>
+        <v>297608</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243">
-        <v>294856</v>
+        <v>298050</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244">
-        <v>294977</v>
+        <v>298804</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245">
-        <v>295459</v>
+        <v>298928</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246">
-        <v>295854</v>
+        <v>299738</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
-        <v>295955</v>
+        <v>299976</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248">
-        <v>295971</v>
+        <v>300115</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
-        <v>296781</v>
+        <v>300332</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250">
-        <v>296798</v>
+        <v>300708</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251">
-        <v>297312</v>
+        <v>300771</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252">
-        <v>297608</v>
+        <v>300911</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253">
-        <v>298050</v>
+        <v>301031</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254">
-        <v>298245</v>
+        <v>301353</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
-        <v>298589</v>
+        <v>301918</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
-        <v>298804</v>
+        <v>303902</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257">
-        <v>298928</v>
+        <v>304200</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258">
-        <v>299738</v>
+        <v>304488</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259">
-        <v>299976</v>
+        <v>304754</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260">
-        <v>300115</v>
+        <v>305091</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261">
-        <v>300708</v>
+        <v>305136</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262">
-        <v>300885</v>
+        <v>306129</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263">
-        <v>300911</v>
+        <v>306779</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264">
-        <v>301031</v>
+        <v>306887</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
-        <v>301353</v>
+        <v>307118</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
-        <v>301918</v>
+        <v>307363</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267">
-        <v>303902</v>
+        <v>307762</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268">
-        <v>304200</v>
+        <v>307775</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269">
-        <v>304488</v>
+        <v>307941</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270">
-        <v>304754</v>
+        <v>308005</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271">
-        <v>305091</v>
+        <v>308046</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272">
-        <v>305136</v>
+        <v>308209</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273">
-        <v>305400</v>
+        <v>308396</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274">
-        <v>306129</v>
+        <v>308482</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275">
-        <v>306779</v>
+        <v>308495</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276">
-        <v>306857</v>
+        <v>308746</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277">
-        <v>306887</v>
+        <v>308905</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278">
-        <v>307118</v>
+        <v>309140</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279">
-        <v>307212</v>
+        <v>309225</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280">
-        <v>307762</v>
+        <v>309772</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281">
-        <v>307775</v>
+        <v>309817</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282">
-        <v>307879</v>
+        <v>310664</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283">
-        <v>307941</v>
+        <v>311170</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284">
-        <v>308005</v>
+        <v>311270</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285">
-        <v>308046</v>
+        <v>311577</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286">
-        <v>308209</v>
+        <v>311749</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287">
-        <v>308396</v>
+        <v>312334</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288">
-        <v>308482</v>
+        <v>312675</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289">
-        <v>308495</v>
+        <v>312916</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290">
-        <v>308746</v>
+        <v>313038</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291">
-        <v>308905</v>
+        <v>313069</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292">
-        <v>309140</v>
+        <v>313275</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293">
-        <v>309225</v>
+        <v>315024</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294">
-        <v>309772</v>
+        <v>315878</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295">
-        <v>309817</v>
+        <v>315972</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296">
-        <v>310664</v>
+        <v>316010</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297">
-        <v>311170</v>
+        <v>316128</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298">
-        <v>311270</v>
+        <v>316149</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299">
-        <v>311577</v>
+        <v>316152</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300">
-        <v>311749</v>
+        <v>316254</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301">
-        <v>312116</v>
+        <v>317053</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302">
-        <v>312334</v>
+        <v>317147</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303">
-        <v>312675</v>
+        <v>317204</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304">
-        <v>312916</v>
+        <v>317359</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305">
-        <v>313038</v>
+        <v>317476</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306">
-        <v>313069</v>
+        <v>317839</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307">
-        <v>313275</v>
+        <v>319821</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308">
-        <v>315024</v>
+        <v>319835</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309">
-        <v>315878</v>
+        <v>321067</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310">
-        <v>315972</v>
+        <v>321478</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311">
-        <v>316010</v>
+        <v>321668</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312">
-        <v>316128</v>
+        <v>321879</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313">
-        <v>316149</v>
+        <v>322651</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314">
-        <v>316152</v>
+        <v>322673</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315">
-        <v>316254</v>
+        <v>322804</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316">
-        <v>317053</v>
+        <v>322834</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317">
-        <v>317147</v>
+        <v>323562</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318">
-        <v>317204</v>
+        <v>323570</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319">
-        <v>317359</v>
+        <v>323824</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320">
-        <v>317476</v>
+        <v>324222</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321">
-        <v>317839</v>
+        <v>324480</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322">
-        <v>319821</v>
+        <v>325016</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323">
-        <v>319835</v>
+        <v>325066</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324">
-        <v>321067</v>
+        <v>326201</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325">
-        <v>321478</v>
+        <v>326736</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326">
-        <v>321668</v>
+        <v>326745</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327">
-        <v>321879</v>
+        <v>327859</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328">
-        <v>322673</v>
+        <v>328551</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329">
-        <v>322834</v>
+        <v>328683</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330">
-        <v>323562</v>
+        <v>329043</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331">
-        <v>323570</v>
+        <v>329248</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332">
-        <v>323824</v>
+        <v>329582</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333">
-        <v>324222</v>
+        <v>330093</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334">
-        <v>324480</v>
+        <v>330332</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335">
-        <v>325016</v>
+        <v>330366</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336">
-        <v>325066</v>
+        <v>330451</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337">
-        <v>326201</v>
+        <v>330717</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338">
-        <v>326736</v>
+        <v>332197</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339">
-        <v>326745</v>
+        <v>332383</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340">
-        <v>327859</v>
+        <v>332471</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341">
-        <v>328551</v>
+        <v>332619</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342">
-        <v>328683</v>
+        <v>333218</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343">
-        <v>329043</v>
+        <v>334014</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344">
-        <v>329248</v>
+        <v>334339</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345">
-        <v>329783</v>
+        <v>334393</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346">
-        <v>330093</v>
+        <v>334395</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347">
-        <v>330332</v>
+        <v>334886</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348">
-        <v>330366</v>
+        <v>335383</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349">
-        <v>330451</v>
+        <v>335527</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350">
-        <v>330717</v>
+        <v>337058</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351">
-        <v>332197</v>
+        <v>337417</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352">
-        <v>332383</v>
+        <v>337591</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353">
-        <v>332619</v>
+        <v>338758</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354">
-        <v>333218</v>
+        <v>338849</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355">
-        <v>334014</v>
+        <v>339199</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356">
-        <v>334339</v>
+        <v>339328</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357">
-        <v>334393</v>
+        <v>339369</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358">
-        <v>334395</v>
+        <v>341677</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359">
-        <v>334886</v>
+        <v>341881</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360">
-        <v>335383</v>
+        <v>342448</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361">
-        <v>335527</v>
+        <v>343376</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362">
-        <v>337058</v>
+        <v>343409</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363">
-        <v>337417</v>
+        <v>343546</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364">
-        <v>337591</v>
+        <v>344608</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365">
-        <v>337960</v>
+        <v>344711</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366">
-        <v>338758</v>
+        <v>345349</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367">
-        <v>338849</v>
+        <v>345359</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368">
-        <v>339199</v>
+        <v>345745</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369">
-        <v>339328</v>
+        <v>345940</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370">
-        <v>339369</v>
+        <v>345967</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371">
-        <v>341677</v>
+        <v>346459</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372">
-        <v>341881</v>
+        <v>347925</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373">
-        <v>342448</v>
+        <v>348390</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374">
-        <v>342946</v>
+        <v>349859</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375">
-        <v>343214</v>
+        <v>349865</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376">
-        <v>343376</v>
+        <v>349890</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377">
-        <v>343409</v>
+        <v>350432</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378">
-        <v>343546</v>
+        <v>351044</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379">
-        <v>344608</v>
+        <v>351202</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380">
-        <v>344711</v>
+        <v>351275</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381">
-        <v>345349</v>
+        <v>351738</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382">
-        <v>345359</v>
+        <v>352957</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383">
-        <v>345745</v>
+        <v>353139</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384">
-        <v>345967</v>
+        <v>353303</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385">
-        <v>346459</v>
+        <v>353638</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386">
-        <v>347925</v>
+        <v>353950</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387">
-        <v>348390</v>
+        <v>354051</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388">
-        <v>349859</v>
+        <v>354552</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389">
-        <v>349865</v>
+        <v>354655</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390">
-        <v>349890</v>
+        <v>354671</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391">
-        <v>349897</v>
+        <v>355255</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392">
-        <v>350432</v>
+        <v>355332</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393">
-        <v>351044</v>
+        <v>356152</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394">
-        <v>351202</v>
+        <v>356183</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395">
-        <v>351234</v>
+        <v>356250</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396">
-        <v>351738</v>
+        <v>356664</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397">
-        <v>352957</v>
+        <v>357272</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398">
-        <v>353139</v>
+        <v>357960</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399">
-        <v>353303</v>
+        <v>358289</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400">
-        <v>353638</v>
+        <v>358480</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401">
-        <v>353950</v>
+        <v>358500</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402">
-        <v>354051</v>
+        <v>358962</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403">
-        <v>354552</v>
+        <v>359939</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404">
-        <v>354655</v>
+        <v>362821</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405">
-        <v>354671</v>
+        <v>364125</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406">
-        <v>355255</v>
+        <v>364974</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407">
-        <v>355332</v>
+        <v>364991</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408">
-        <v>356152</v>
+        <v>365127</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409">
-        <v>356183</v>
+        <v>366430</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410">
-        <v>356250</v>
+        <v>367237</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411">
-        <v>356664</v>
+        <v>367347</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412">
-        <v>357272</v>
+        <v>367376</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413">
-        <v>357960</v>
+        <v>367395</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414">
-        <v>358289</v>
+        <v>367893</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415">
-        <v>358480</v>
+        <v>367896</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416">
-        <v>358500</v>
+        <v>368039</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417">
-        <v>358962</v>
+        <v>368323</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418">
-        <v>359939</v>
+        <v>369053</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419">
-        <v>364125</v>
+        <v>369083</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420">
-        <v>364974</v>
+        <v>369794</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421">
-        <v>364991</v>
+        <v>370719</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422">
-        <v>365127</v>
+        <v>371251</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423">
-        <v>366430</v>
+        <v>371820</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424">
-        <v>367347</v>
+        <v>372281</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425">
-        <v>367376</v>
+        <v>372337</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426">
-        <v>367395</v>
+        <v>372656</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427">
-        <v>367893</v>
+        <v>373213</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428">
-        <v>367896</v>
+        <v>373240</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429">
-        <v>368039</v>
+        <v>373324</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430">
-        <v>368323</v>
+        <v>373822</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431">
-        <v>369053</v>
+        <v>374737</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432">
-        <v>369083</v>
+        <v>375029</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433">
-        <v>369794</v>
+        <v>375059</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434">
-        <v>370704</v>
+        <v>375529</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435">
-        <v>370719</v>
+        <v>375555</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436">
-        <v>371251</v>
+        <v>375787</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437">
-        <v>371693</v>
+        <v>375865</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438">
-        <v>371820</v>
+        <v>375876</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439">
-        <v>372281</v>
+        <v>376031</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440">
-        <v>372337</v>
+        <v>376495</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441">
-        <v>372656</v>
+        <v>376621</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442">
-        <v>373213</v>
+        <v>376635</v>
       </c>
     </row>
     <row r="443" spans="1:1">
       <c r="A443">
-        <v>373240</v>
+        <v>377699</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444">
-        <v>373324</v>
+        <v>377722</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445">
-        <v>373336</v>
+        <v>378168</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446">
-        <v>373822</v>
+        <v>378227</v>
       </c>
     </row>
     <row r="447" spans="1:1">
       <c r="A447">
-        <v>374737</v>
+        <v>378639</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448">
-        <v>375059</v>
+        <v>378798</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449">
-        <v>375229</v>
+        <v>379054</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450">
-        <v>375529</v>
+        <v>379188</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451">
-        <v>375555</v>
+        <v>379279</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452">
-        <v>375787</v>
+        <v>380073</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453">
-        <v>375865</v>
+        <v>380190</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454">
-        <v>376031</v>
+        <v>380922</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455">
-        <v>376495</v>
+        <v>380986</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456">
-        <v>376507</v>
+        <v>381066</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457">
-        <v>376635</v>
+        <v>381079</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458">
-        <v>377699</v>
+        <v>381121</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459">
-        <v>378168</v>
+        <v>381642</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460">
-        <v>378639</v>
+        <v>382180</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461">
-        <v>378798</v>
+        <v>382290</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462">
-        <v>379054</v>
+        <v>382399</v>
       </c>
     </row>
     <row r="463" spans="1:1">
       <c r="A463">
-        <v>379188</v>
+        <v>382712</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464">
-        <v>379279</v>
+        <v>382928</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465">
-        <v>380073</v>
+        <v>382977</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466">
-        <v>380190</v>
+        <v>383544</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467">
-        <v>380922</v>
+        <v>383663</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468">
-        <v>380986</v>
+        <v>383988</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469">
-        <v>381066</v>
+        <v>384406</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470">
-        <v>381079</v>
+        <v>384556</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471">
-        <v>381121</v>
+        <v>384641</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472">
-        <v>381642</v>
+        <v>385132</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473">
-        <v>382180</v>
+        <v>385166</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474">
-        <v>382399</v>
+        <v>385309</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475">
-        <v>382712</v>
+        <v>385326</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476">
-        <v>382928</v>
+        <v>385739</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477">
-        <v>382977</v>
+        <v>386398</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478">
-        <v>383544</v>
+        <v>387424</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479">
-        <v>383565</v>
+        <v>388591</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480">
-        <v>383663</v>
+        <v>388660</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481">
-        <v>383988</v>
+        <v>388703</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482">
-        <v>384406</v>
+        <v>388814</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483">
-        <v>384556</v>
+        <v>389121</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484">
-        <v>384641</v>
+        <v>389628</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485">
-        <v>385132</v>
+        <v>389747</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486">
-        <v>385309</v>
+        <v>390277</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487">
-        <v>385326</v>
+        <v>390714</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488">
-        <v>385523</v>
+        <v>391447</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489">
-        <v>385739</v>
+        <v>391694</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490">
-        <v>386398</v>
+        <v>391874</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491">
-        <v>387424</v>
+        <v>393029</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492">
-        <v>388591</v>
+        <v>393148</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493">
-        <v>388660</v>
+        <v>393852</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494">
-        <v>388703</v>
+        <v>395122</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495">
-        <v>388814</v>
+        <v>395127</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496">
-        <v>389121</v>
+        <v>395233</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497">
-        <v>389628</v>
+        <v>395282</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498">
-        <v>389747</v>
+        <v>395624</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499">
-        <v>389898</v>
+        <v>395744</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500">
-        <v>390277</v>
+        <v>395916</v>
       </c>
     </row>
     <row r="501" spans="1:1">
       <c r="A501">
-        <v>390714</v>
+        <v>396409</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502">
-        <v>391447</v>
+        <v>397286</v>
       </c>
     </row>
     <row r="503" spans="1:1">
       <c r="A503">
-        <v>391694</v>
+        <v>398149</v>
       </c>
     </row>
     <row r="504" spans="1:1">
       <c r="A504">
-        <v>393029</v>
+        <v>398783</v>
       </c>
     </row>
     <row r="505" spans="1:1">
       <c r="A505">
-        <v>393148</v>
+        <v>398788</v>
       </c>
     </row>
     <row r="506" spans="1:1">
       <c r="A506">
-        <v>393852</v>
+        <v>399496</v>
       </c>
     </row>
     <row r="507" spans="1:1">
       <c r="A507">
-        <v>395122</v>
+        <v>400319</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508">
-        <v>395127</v>
+        <v>400987</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509">
-        <v>395233</v>
+        <v>401002</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510">
-        <v>395282</v>
+        <v>401106</v>
       </c>
     </row>
     <row r="511" spans="1:1">
       <c r="A511">
-        <v>395624</v>
+        <v>401439</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512">
-        <v>395744</v>
+        <v>402194</v>
       </c>
     </row>
     <row r="513" spans="1:1">
       <c r="A513">
-        <v>395860</v>
+        <v>403072</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514">
-        <v>395916</v>
+        <v>403096</v>
       </c>
     </row>
     <row r="515" spans="1:1">
       <c r="A515">
-        <v>396409</v>
+        <v>403971</v>
       </c>
     </row>
     <row r="516" spans="1:1">
       <c r="A516">
-        <v>397286</v>
+        <v>404189</v>
       </c>
     </row>
     <row r="517" spans="1:1">
       <c r="A517">
-        <v>398149</v>
+        <v>404563</v>
       </c>
     </row>
     <row r="518" spans="1:1">
       <c r="A518">
-        <v>398783</v>
+        <v>405246</v>
       </c>
     </row>
     <row r="519" spans="1:1">
       <c r="A519">
-        <v>398788</v>
+        <v>406019</v>
       </c>
     </row>
     <row r="520" spans="1:1">
       <c r="A520">
-        <v>399496</v>
+        <v>406127</v>
       </c>
     </row>
     <row r="521" spans="1:1">
       <c r="A521">
-        <v>400987</v>
+        <v>406782</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522">
-        <v>401002</v>
+        <v>407044</v>
       </c>
     </row>
     <row r="523" spans="1:1">
       <c r="A523">
-        <v>401106</v>
+        <v>407146</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524">
-        <v>401439</v>
+        <v>408068</v>
       </c>
     </row>
     <row r="525" spans="1:1">
       <c r="A525">
-        <v>402194</v>
+        <v>408544</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526">
-        <v>403072</v>
+        <v>409735</v>
       </c>
     </row>
     <row r="527" spans="1:1">
       <c r="A527">
-        <v>403096</v>
+        <v>410461</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528">
-        <v>403971</v>
+        <v>410863</v>
       </c>
     </row>
     <row r="529" spans="1:1">
       <c r="A529">
-        <v>404563</v>
+        <v>411016</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530">
-        <v>406019</v>
+        <v>411132</v>
       </c>
     </row>
     <row r="531" spans="1:1">
       <c r="A531">
-        <v>406127</v>
+        <v>411851</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532">
-        <v>406782</v>
+        <v>412976</v>
       </c>
     </row>
     <row r="533" spans="1:1">
       <c r="A533">
-        <v>407044</v>
+        <v>413179</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534">
-        <v>407146</v>
+        <v>413190</v>
       </c>
     </row>
     <row r="535" spans="1:1">
       <c r="A535">
-        <v>408068</v>
+        <v>414264</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536">
-        <v>408544</v>
+        <v>415141</v>
       </c>
     </row>
     <row r="537" spans="1:1">
       <c r="A537">
-        <v>409735</v>
+        <v>418346</v>
       </c>
     </row>
     <row r="538" spans="1:1">
       <c r="A538">
-        <v>410461</v>
+        <v>418470</v>
       </c>
     </row>
     <row r="539" spans="1:1">
       <c r="A539">
-        <v>410501</v>
+        <v>418806</v>
       </c>
     </row>
     <row r="540" spans="1:1">
       <c r="A540">
-        <v>410863</v>
+        <v>419685</v>
       </c>
     </row>
     <row r="541" spans="1:1">
       <c r="A541">
-        <v>411016</v>
+        <v>419928</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542">
-        <v>411132</v>
+        <v>421274</v>
       </c>
     </row>
     <row r="543" spans="1:1">
       <c r="A543">
-        <v>411851</v>
+        <v>426395</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544">
-        <v>412976</v>
+        <v>426579</v>
       </c>
     </row>
     <row r="545" spans="1:1">
       <c r="A545">
-        <v>413179</v>
+        <v>427282</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546">
-        <v>413190</v>
+        <v>427608</v>
       </c>
     </row>
     <row r="547" spans="1:1">
       <c r="A547">
-        <v>414264</v>
+        <v>427767</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548">
-        <v>415141</v>
+        <v>428053</v>
       </c>
     </row>
     <row r="549" spans="1:1">
       <c r="A549">
-        <v>417590</v>
+        <v>428720</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550">
-        <v>418346</v>
+        <v>431399</v>
       </c>
     </row>
     <row r="551" spans="1:1">
       <c r="A551">
-        <v>418470</v>
+        <v>432763</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552">
-        <v>418806</v>
+        <v>433334</v>
       </c>
     </row>
     <row r="553" spans="1:1">
       <c r="A553">
-        <v>419685</v>
+        <v>434179</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554">
-        <v>419928</v>
+        <v>434213</v>
       </c>
     </row>
     <row r="555" spans="1:1">
       <c r="A555">
-        <v>421274</v>
+        <v>434463</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556">
-        <v>421773</v>
+        <v>435765</v>
       </c>
     </row>
     <row r="557" spans="1:1">
       <c r="A557">
-        <v>426395</v>
+        <v>436328</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558">
-        <v>426579</v>
+        <v>436714</v>
       </c>
     </row>
     <row r="559" spans="1:1">
       <c r="A559">
-        <v>427608</v>
+        <v>436845</v>
       </c>
     </row>
     <row r="560" spans="1:1">
       <c r="A560">
-        <v>427767</v>
+        <v>437079</v>
       </c>
     </row>
     <row r="561" spans="1:1">
       <c r="A561">
-        <v>428053</v>
+        <v>437593</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562">
-        <v>428720</v>
+        <v>437633</v>
       </c>
     </row>
     <row r="563" spans="1:1">
       <c r="A563">
-        <v>431399</v>
+        <v>438465</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564">
-        <v>432763</v>
+        <v>438619</v>
       </c>
     </row>
     <row r="565" spans="1:1">
       <c r="A565">
-        <v>433334</v>
+        <v>439481</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566">
-        <v>433931</v>
+        <v>439675</v>
       </c>
     </row>
     <row r="567" spans="1:1">
       <c r="A567">
-        <v>434179</v>
+        <v>439885</v>
       </c>
     </row>
     <row r="568" spans="1:1">
       <c r="A568">
-        <v>434213</v>
+        <v>440027</v>
       </c>
     </row>
     <row r="569" spans="1:1">
       <c r="A569">
-        <v>434463</v>
+        <v>440250</v>
       </c>
     </row>
     <row r="570" spans="1:1">
       <c r="A570">
-        <v>435765</v>
+        <v>441618</v>
       </c>
     </row>
     <row r="571" spans="1:1">
       <c r="A571">
-        <v>436328</v>
+        <v>442241</v>
       </c>
     </row>
     <row r="572" spans="1:1">
       <c r="A572">
-        <v>436714</v>
+        <v>444096</v>
       </c>
     </row>
     <row r="573" spans="1:1">
       <c r="A573">
-        <v>436845</v>
+        <v>444593</v>
       </c>
     </row>
     <row r="574" spans="1:1">
       <c r="A574">
-        <v>437079</v>
+        <v>445885</v>
       </c>
     </row>
     <row r="575" spans="1:1">
       <c r="A575">
-        <v>437593</v>
+        <v>446489</v>
       </c>
     </row>
     <row r="576" spans="1:1">
       <c r="A576">
-        <v>437633</v>
+        <v>447333</v>
       </c>
     </row>
     <row r="577" spans="1:1">
       <c r="A577">
-        <v>438465</v>
+        <v>447608</v>
       </c>
     </row>
     <row r="578" spans="1:1">
       <c r="A578">
-        <v>439321</v>
+        <v>449075</v>
       </c>
     </row>
     <row r="579" spans="1:1">
       <c r="A579">
-        <v>439481</v>
+        <v>451974</v>
       </c>
     </row>
     <row r="580" spans="1:1">
       <c r="A580">
-        <v>439675</v>
+        <v>455127</v>
       </c>
     </row>
     <row r="581" spans="1:1">
       <c r="A581">
-        <v>439885</v>
+        <v>455466</v>
       </c>
     </row>
     <row r="582" spans="1:1">
       <c r="A582">
-        <v>440027</v>
+        <v>455823</v>
       </c>
     </row>
     <row r="583" spans="1:1">
       <c r="A583">
-        <v>440250</v>
+        <v>457057</v>
       </c>
     </row>
     <row r="584" spans="1:1">
       <c r="A584">
-        <v>440753</v>
+        <v>457768</v>
       </c>
     </row>
     <row r="585" spans="1:1">
       <c r="A585">
-        <v>441618</v>
+        <v>461919</v>
       </c>
     </row>
     <row r="586" spans="1:1">
       <c r="A586">
-        <v>442241</v>
+        <v>464428</v>
       </c>
     </row>
     <row r="587" spans="1:1">
       <c r="A587">
-        <v>444096</v>
+        <v>464565</v>
       </c>
     </row>
     <row r="588" spans="1:1">
       <c r="A588">
-        <v>444593</v>
+        <v>464568</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589">
-        <v>445885</v>
+        <v>464594</v>
       </c>
     </row>
     <row r="590" spans="1:1">
       <c r="A590">
-        <v>446489</v>
+        <v>467978</v>
       </c>
     </row>
     <row r="591" spans="1:1">
       <c r="A591">
-        <v>447333</v>
+        <v>470048</v>
       </c>
     </row>
     <row r="592" spans="1:1">
       <c r="A592">
-        <v>447608</v>
+        <v>472307</v>
       </c>
     </row>
     <row r="593" spans="1:1">
       <c r="A593">
-        <v>449075</v>
+        <v>474682</v>
       </c>
     </row>
     <row r="594" spans="1:1">
       <c r="A594">
-        <v>451974</v>
+        <v>476279</v>
       </c>
     </row>
     <row r="595" spans="1:1">
       <c r="A595">
-        <v>455127</v>
+        <v>478305</v>
       </c>
     </row>
     <row r="596" spans="1:1">
       <c r="A596">
-        <v>455466</v>
+        <v>480236</v>
       </c>
     </row>
     <row r="597" spans="1:1">
       <c r="A597">
-        <v>455823</v>
+        <v>481035</v>
       </c>
     </row>
     <row r="598" spans="1:1">
       <c r="A598">
-        <v>457057</v>
+        <v>483162</v>
       </c>
     </row>
     <row r="599" spans="1:1">
       <c r="A599">
-        <v>457768</v>
+        <v>483290</v>
       </c>
     </row>
     <row r="600" spans="1:1">
       <c r="A600">
-        <v>461919</v>
+        <v>483856</v>
       </c>
     </row>
     <row r="601" spans="1:1">
       <c r="A601">
-        <v>464428</v>
+        <v>484967</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602">
-        <v>464568</v>
+        <v>485263</v>
       </c>
     </row>
     <row r="603" spans="1:1">
       <c r="A603">
-        <v>464594</v>
+        <v>485749</v>
       </c>
     </row>
     <row r="604" spans="1:1">
       <c r="A604">
-        <v>467978</v>
+        <v>486104</v>
       </c>
     </row>
     <row r="605" spans="1:1">
       <c r="A605">
-        <v>470048</v>
+        <v>486473</v>
       </c>
     </row>
     <row r="606" spans="1:1">
       <c r="A606">
-        <v>472307</v>
+        <v>486476</v>
       </c>
     </row>
     <row r="607" spans="1:1">
       <c r="A607">
-        <v>474682</v>
+        <v>486597</v>
       </c>
     </row>
     <row r="608" spans="1:1">
       <c r="A608">
-        <v>476279</v>
+        <v>487033</v>
       </c>
     </row>
     <row r="609" spans="1:1">
       <c r="A609">
-        <v>478305</v>
+        <v>487407</v>
       </c>
     </row>
     <row r="610" spans="1:1">
       <c r="A610">
-        <v>480236</v>
+        <v>488198</v>
       </c>
     </row>
     <row r="611" spans="1:1">
       <c r="A611">
-        <v>481035</v>
+        <v>488430</v>
       </c>
     </row>
     <row r="612" spans="1:1">
       <c r="A612">
-        <v>481466</v>
+        <v>489022</v>
       </c>
     </row>
     <row r="613" spans="1:1">
       <c r="A613">
-        <v>483162</v>
+        <v>489793</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614">
-        <v>483290</v>
+        <v>490361</v>
       </c>
     </row>
     <row r="615" spans="1:1">
       <c r="A615">
-        <v>484395</v>
+        <v>490401</v>
       </c>
     </row>
     <row r="616" spans="1:1">
       <c r="A616">
-        <v>484967</v>
+        <v>490404</v>
       </c>
     </row>
     <row r="617" spans="1:1">
       <c r="A617">
-        <v>485263</v>
+        <v>490618</v>
       </c>
     </row>
     <row r="618" spans="1:1">
       <c r="A618">
-        <v>485749</v>
+        <v>490743</v>
       </c>
     </row>
     <row r="619" spans="1:1">
       <c r="A619">
-        <v>486104</v>
+        <v>490911</v>
       </c>
     </row>
     <row r="620" spans="1:1">
       <c r="A620">
-        <v>486473</v>
+        <v>491385</v>
       </c>
     </row>
     <row r="621" spans="1:1">
       <c r="A621">
-        <v>486476</v>
+        <v>491998</v>
       </c>
     </row>
     <row r="622" spans="1:1">
       <c r="A622">
-        <v>486597</v>
+        <v>492728</v>
       </c>
     </row>
     <row r="623" spans="1:1">
       <c r="A623">
-        <v>487033</v>
+        <v>492787</v>
       </c>
     </row>
     <row r="624" spans="1:1">
       <c r="A624">
-        <v>488198</v>
+        <v>493404</v>
       </c>
     </row>
     <row r="625" spans="1:1">
       <c r="A625">
-        <v>488430</v>
+        <v>494633</v>
       </c>
     </row>
     <row r="626" spans="1:1">
       <c r="A626">
-        <v>489022</v>
+        <v>494674</v>
       </c>
     </row>
     <row r="627" spans="1:1">
       <c r="A627">
-        <v>489793</v>
+        <v>495025</v>
       </c>
     </row>
     <row r="628" spans="1:1">
       <c r="A628">
-        <v>490401</v>
+        <v>495485</v>
       </c>
     </row>
     <row r="629" spans="1:1">
       <c r="A629">
-        <v>490404</v>
+        <v>495827</v>
       </c>
     </row>
     <row r="630" spans="1:1">
       <c r="A630">
-        <v>490618</v>
+        <v>495835</v>
       </c>
     </row>
     <row r="631" spans="1:1">
       <c r="A631">
-        <v>491147</v>
+        <v>495857</v>
       </c>
     </row>
     <row r="632" spans="1:1">
       <c r="A632">
-        <v>491385</v>
+        <v>496431</v>
       </c>
     </row>
     <row r="633" spans="1:1">
       <c r="A633">
-        <v>491998</v>
+        <v>496519</v>
       </c>
     </row>
     <row r="634" spans="1:1">
       <c r="A634">
-        <v>492224</v>
+        <v>496791</v>
       </c>
     </row>
     <row r="635" spans="1:1">
       <c r="A635">
-        <v>492728</v>
+        <v>496847</v>
       </c>
     </row>
     <row r="636" spans="1:1">
       <c r="A636">
-        <v>492787</v>
+        <v>496953</v>
       </c>
     </row>
     <row r="637" spans="1:1">
       <c r="A637">
-        <v>494633</v>
+        <v>497017</v>
       </c>
     </row>
     <row r="638" spans="1:1">
       <c r="A638">
-        <v>494674</v>
+        <v>497087</v>
       </c>
     </row>
     <row r="639" spans="1:1">
       <c r="A639">
-        <v>495025</v>
+        <v>497136</v>
       </c>
     </row>
     <row r="640" spans="1:1">
       <c r="A640">
-        <v>495485</v>
+        <v>497205</v>
       </c>
     </row>
     <row r="641" spans="1:1">
       <c r="A641">
-        <v>495827</v>
+        <v>497353</v>
       </c>
     </row>
     <row r="642" spans="1:1">
       <c r="A642">
-        <v>495835</v>
+        <v>497723</v>
       </c>
     </row>
     <row r="643" spans="1:1">
       <c r="A643">
-        <v>495857</v>
+        <v>497829</v>
       </c>
     </row>
     <row r="644" spans="1:1">
       <c r="A644">
-        <v>496431</v>
+        <v>497865</v>
       </c>
     </row>
     <row r="645" spans="1:1">
       <c r="A645">
-        <v>496519</v>
+        <v>498125</v>
       </c>
     </row>
     <row r="646" spans="1:1">
       <c r="A646">
-        <v>496791</v>
+        <v>498191</v>
       </c>
     </row>
     <row r="647" spans="1:1">
       <c r="A647">
-        <v>496847</v>
+        <v>498549</v>
       </c>
     </row>
     <row r="648" spans="1:1">
       <c r="A648">
-        <v>496953</v>
+        <v>498649</v>
       </c>
     </row>
     <row r="649" spans="1:1">
       <c r="A649">
-        <v>497017</v>
+        <v>499158</v>
       </c>
     </row>
     <row r="650" spans="1:1">
       <c r="A650">
-        <v>497136</v>
+        <v>499201</v>
       </c>
     </row>
     <row r="651" spans="1:1">
       <c r="A651">
-        <v>497151</v>
+        <v>499301</v>
       </c>
     </row>
     <row r="652" spans="1:1">
       <c r="A652">
-        <v>497205</v>
+        <v>499415</v>
       </c>
     </row>
     <row r="653" spans="1:1">
       <c r="A653">
-        <v>497353</v>
+        <v>499468</v>
       </c>
     </row>
     <row r="654" spans="1:1">
       <c r="A654">
-        <v>497723</v>
+        <v>500801</v>
       </c>
     </row>
     <row r="655" spans="1:1">
       <c r="A655">
-        <v>497829</v>
+        <v>500901</v>
       </c>
     </row>
     <row r="656" spans="1:1">
       <c r="A656">
-        <v>497865</v>
+        <v>501080</v>
       </c>
     </row>
     <row r="657" spans="1:1">
       <c r="A657">
-        <v>498125</v>
+        <v>501188</v>
       </c>
     </row>
     <row r="658" spans="1:1">
       <c r="A658">
-        <v>498191</v>
+        <v>501966</v>
       </c>
     </row>
     <row r="659" spans="1:1">
       <c r="A659">
-        <v>498549</v>
+        <v>502106</v>
       </c>
     </row>
     <row r="660" spans="1:1">
       <c r="A660">
-        <v>498649</v>
+        <v>502139</v>
       </c>
     </row>
     <row r="661" spans="1:1">
       <c r="A661">
-        <v>499158</v>
+        <v>502442</v>
       </c>
     </row>
     <row r="662" spans="1:1">
       <c r="A662">
-        <v>499201</v>
+        <v>502794</v>
       </c>
     </row>
     <row r="663" spans="1:1">
       <c r="A663">
-        <v>499301</v>
+        <v>502909</v>
       </c>
     </row>
     <row r="664" spans="1:1">
       <c r="A664">
-        <v>499415</v>
+        <v>503276</v>
       </c>
     </row>
     <row r="665" spans="1:1">
       <c r="A665">
-        <v>499468</v>
+        <v>503461</v>
       </c>
     </row>
     <row r="666" spans="1:1">
       <c r="A666">
-        <v>500801</v>
+        <v>504390</v>
       </c>
     </row>
     <row r="667" spans="1:1">
       <c r="A667">
-        <v>500901</v>
+        <v>505172</v>
       </c>
     </row>
     <row r="668" spans="1:1">
       <c r="A668">
-        <v>501080</v>
+        <v>505310</v>
       </c>
     </row>
     <row r="669" spans="1:1">
       <c r="A669">
-        <v>501966</v>
+        <v>505909</v>
       </c>
     </row>
     <row r="670" spans="1:1">
       <c r="A670">
-        <v>502106</v>
+        <v>505949</v>
       </c>
     </row>
     <row r="671" spans="1:1">
       <c r="A671">
-        <v>502139</v>
+        <v>506033</v>
       </c>
     </row>
     <row r="672" spans="1:1">
       <c r="A672">
-        <v>502442</v>
+        <v>508083</v>
       </c>
     </row>
     <row r="673" spans="1:1">
       <c r="A673">
-        <v>502794</v>
+        <v>508501</v>
       </c>
     </row>
     <row r="674" spans="1:1">
       <c r="A674">
-        <v>502909</v>
+        <v>509349</v>
       </c>
     </row>
     <row r="675" spans="1:1">
       <c r="A675">
-        <v>503461</v>
+        <v>509710</v>
       </c>
     </row>
     <row r="676" spans="1:1">
       <c r="A676">
-        <v>504390</v>
+        <v>510192</v>
       </c>
     </row>
     <row r="677" spans="1:1">
       <c r="A677">
-        <v>505172</v>
+        <v>511030</v>
       </c>
     </row>
     <row r="678" spans="1:1">
       <c r="A678">
-        <v>505310</v>
+        <v>511150</v>
       </c>
     </row>
     <row r="679" spans="1:1">
       <c r="A679">
-        <v>505909</v>
+        <v>511645</v>
       </c>
     </row>
     <row r="680" spans="1:1">
       <c r="A680">
-        <v>505949</v>
+        <v>512072</v>
       </c>
     </row>
     <row r="681" spans="1:1">
       <c r="A681">
-        <v>506033</v>
+        <v>512159</v>
       </c>
     </row>
     <row r="682" spans="1:1">
       <c r="A682">
-        <v>508083</v>
+        <v>512263</v>
       </c>
     </row>
     <row r="683" spans="1:1">
       <c r="A683">
-        <v>508501</v>
+        <v>512402</v>
       </c>
     </row>
     <row r="684" spans="1:1">
       <c r="A684">
-        <v>509349</v>
+        <v>512595</v>
       </c>
     </row>
     <row r="685" spans="1:1">
       <c r="A685">
-        <v>509710</v>
+        <v>513105</v>
       </c>
     </row>
     <row r="686" spans="1:1">
       <c r="A686">
-        <v>510192</v>
+        <v>515250</v>
       </c>
     </row>
     <row r="687" spans="1:1">
       <c r="A687">
-        <v>511030</v>
+        <v>516116</v>
       </c>
     </row>
     <row r="688" spans="1:1">
       <c r="A688">
-        <v>511150</v>
+        <v>517843</v>
       </c>
     </row>
     <row r="689" spans="1:1">
       <c r="A689">
-        <v>511645</v>
+        <v>518013</v>
       </c>
     </row>
     <row r="690" spans="1:1">
       <c r="A690">
-        <v>512072</v>
+        <v>518762</v>
       </c>
     </row>
     <row r="691" spans="1:1">
       <c r="A691">
-        <v>512159</v>
+        <v>520048</v>
       </c>
     </row>
     <row r="692" spans="1:1">
       <c r="A692">
-        <v>512263</v>
+        <v>521124</v>
       </c>
     </row>
     <row r="693" spans="1:1">
       <c r="A693">
-        <v>512402</v>
+        <v>521824</v>
       </c>
     </row>
     <row r="694" spans="1:1">
       <c r="A694">
-        <v>512595</v>
+        <v>522074</v>
       </c>
     </row>
     <row r="695" spans="1:1">
       <c r="A695">
-        <v>513105</v>
+        <v>523319</v>
       </c>
     </row>
     <row r="696" spans="1:1">
       <c r="A696">
-        <v>513116</v>
+        <v>524012</v>
       </c>
     </row>
     <row r="697" spans="1:1">
       <c r="A697">
-        <v>515250</v>
+        <v>525282</v>
       </c>
     </row>
     <row r="698" spans="1:1">
       <c r="A698">
-        <v>516116</v>
+        <v>525673</v>
       </c>
     </row>
     <row r="699" spans="1:1">
       <c r="A699">
-        <v>517843</v>
+        <v>525878</v>
       </c>
     </row>
     <row r="700" spans="1:1">
       <c r="A700">
-        <v>518013</v>
+        <v>526329</v>
       </c>
     </row>
     <row r="701" spans="1:1">
       <c r="A701">
-        <v>520074</v>
+        <v>527017</v>
       </c>
     </row>
     <row r="702" spans="1:1">
       <c r="A702">
-        <v>521124</v>
+        <v>527667</v>
       </c>
     </row>
     <row r="703" spans="1:1">
       <c r="A703">
-        <v>521824</v>
+        <v>527886</v>
       </c>
     </row>
     <row r="704" spans="1:1">
       <c r="A704">
-        <v>522074</v>
+        <v>529458</v>
       </c>
     </row>
     <row r="705" spans="1:1">
       <c r="A705">
-        <v>523319</v>
+        <v>530014</v>
       </c>
     </row>
     <row r="706" spans="1:1">
       <c r="A706">
-        <v>524012</v>
+        <v>530525</v>
       </c>
     </row>
     <row r="707" spans="1:1">
       <c r="A707">
-        <v>525282</v>
+        <v>531114</v>
       </c>
     </row>
     <row r="708" spans="1:1">
       <c r="A708">
-        <v>525673</v>
+        <v>531218</v>
       </c>
     </row>
     <row r="709" spans="1:1">
       <c r="A709">
-        <v>525878</v>
+        <v>531953</v>
       </c>
     </row>
     <row r="710" spans="1:1">
       <c r="A710">
-        <v>526329</v>
+        <v>532740</v>
       </c>
     </row>
     <row r="711" spans="1:1">
       <c r="A711">
-        <v>527017</v>
+        <v>535112</v>
       </c>
     </row>
     <row r="712" spans="1:1">
       <c r="A712">
-        <v>527667</v>
+        <v>536406</v>
       </c>
     </row>
     <row r="713" spans="1:1">
       <c r="A713">
-        <v>527886</v>
+        <v>536620</v>
       </c>
     </row>
     <row r="714" spans="1:1">
       <c r="A714">
-        <v>529458</v>
+        <v>538543</v>
       </c>
     </row>
     <row r="715" spans="1:1">
       <c r="A715">
-        <v>530014</v>
+        <v>539333</v>
       </c>
     </row>
     <row r="716" spans="1:1">
       <c r="A716">
-        <v>530525</v>
+        <v>539689</v>
       </c>
     </row>
     <row r="717" spans="1:1">
       <c r="A717">
-        <v>531114</v>
+        <v>540680</v>
       </c>
     </row>
     <row r="718" spans="1:1">
       <c r="A718">
-        <v>531218</v>
+        <v>542562</v>
       </c>
     </row>
     <row r="719" spans="1:1">
       <c r="A719">
-        <v>531953</v>
+        <v>542667</v>
       </c>
     </row>
     <row r="720" spans="1:1">
       <c r="A720">
-        <v>532740</v>
+        <v>542934</v>
       </c>
     </row>
     <row r="721" spans="1:1">
       <c r="A721">
-        <v>533094</v>
+        <v>544049</v>
       </c>
     </row>
     <row r="722" spans="1:1">
       <c r="A722">
-        <v>535112</v>
+        <v>544132</v>
       </c>
     </row>
     <row r="723" spans="1:1">
       <c r="A723">
-        <v>536406</v>
+        <v>544624</v>
       </c>
     </row>
     <row r="724" spans="1:1">
       <c r="A724">
-        <v>536620</v>
+        <v>544748</v>
       </c>
     </row>
     <row r="725" spans="1:1">
       <c r="A725">
-        <v>539333</v>
+        <v>544791</v>
       </c>
     </row>
     <row r="726" spans="1:1">
       <c r="A726">
-        <v>540680</v>
+        <v>545180</v>
       </c>
     </row>
     <row r="727" spans="1:1">
       <c r="A727">
-        <v>542562</v>
+        <v>546572</v>
       </c>
     </row>
     <row r="728" spans="1:1">
       <c r="A728">
-        <v>542667</v>
+        <v>548222</v>
       </c>
     </row>
     <row r="729" spans="1:1">
       <c r="A729">
-        <v>542934</v>
+        <v>548755</v>
       </c>
     </row>
     <row r="730" spans="1:1">
       <c r="A730">
-        <v>544049</v>
+        <v>548948</v>
       </c>
     </row>
     <row r="731" spans="1:1">
       <c r="A731">
-        <v>544132</v>
+        <v>549673</v>
       </c>
     </row>
     <row r="732" spans="1:1">
       <c r="A732">
-        <v>544624</v>
+        <v>552883</v>
       </c>
     </row>
     <row r="733" spans="1:1">
       <c r="A733">
-        <v>544748</v>
+        <v>554504</v>
       </c>
     </row>
     <row r="734" spans="1:1">
       <c r="A734">
-        <v>544791</v>
+        <v>556338</v>
       </c>
     </row>
     <row r="735" spans="1:1">
       <c r="A735">
-        <v>545180</v>
+        <v>556652</v>
       </c>
     </row>
     <row r="736" spans="1:1">
       <c r="A736">
-        <v>546572</v>
+        <v>556885</v>
       </c>
     </row>
     <row r="737" spans="1:1">
       <c r="A737">
-        <v>548222</v>
+        <v>556914</v>
       </c>
     </row>
     <row r="738" spans="1:1">
       <c r="A738">
-        <v>548755</v>
+        <v>557307</v>
       </c>
     </row>
     <row r="739" spans="1:1">
       <c r="A739">
-        <v>548948</v>
+        <v>557641</v>
       </c>
     </row>
     <row r="740" spans="1:1">
       <c r="A740">
-        <v>549673</v>
+        <v>557951</v>
       </c>
     </row>
     <row r="741" spans="1:1">
       <c r="A741">
-        <v>552883</v>
+        <v>558014</v>
       </c>
     </row>
     <row r="742" spans="1:1">
       <c r="A742">
-        <v>554504</v>
+        <v>558544</v>
       </c>
     </row>
     <row r="743" spans="1:1">
       <c r="A743">
-        <v>556338</v>
+        <v>559142</v>
       </c>
     </row>
     <row r="744" spans="1:1">
       <c r="A744">
-        <v>556652</v>
+        <v>561740</v>
       </c>
     </row>
     <row r="745" spans="1:1">
       <c r="A745">
-        <v>556885</v>
+        <v>562527</v>
       </c>
     </row>
     <row r="746" spans="1:1">
       <c r="A746">
-        <v>556914</v>
+        <v>563639</v>
       </c>
     </row>
     <row r="747" spans="1:1">
       <c r="A747">
-        <v>557307</v>
+        <v>564021</v>
       </c>
     </row>
     <row r="748" spans="1:1">
       <c r="A748">
-        <v>557641</v>
+        <v>564520</v>
       </c>
     </row>
     <row r="749" spans="1:1">
       <c r="A749">
-        <v>557951</v>
+        <v>565525</v>
       </c>
     </row>
     <row r="750" spans="1:1">
       <c r="A750">
-        <v>558014</v>
+        <v>566026</v>
       </c>
     </row>
     <row r="751" spans="1:1">
       <c r="A751">
-        <v>558544</v>
+        <v>566815</v>
       </c>
     </row>
     <row r="752" spans="1:1">
       <c r="A752">
-        <v>559142</v>
+        <v>567193</v>
       </c>
     </row>
     <row r="753" spans="1:1">
       <c r="A753">
-        <v>561740</v>
+        <v>568130</v>
       </c>
     </row>
     <row r="754" spans="1:1">
       <c r="A754">
-        <v>563639</v>
+        <v>569183</v>
       </c>
     </row>
     <row r="755" spans="1:1">
       <c r="A755">
-        <v>564021</v>
+        <v>569772</v>
       </c>
     </row>
     <row r="756" spans="1:1">
       <c r="A756">
-        <v>564520</v>
+        <v>570667</v>
       </c>
     </row>
     <row r="757" spans="1:1">
       <c r="A757">
-        <v>565525</v>
+        <v>571422</v>
       </c>
     </row>
     <row r="758" spans="1:1">
       <c r="A758">
-        <v>566026</v>
+        <v>572146</v>
       </c>
     </row>
     <row r="759" spans="1:1">
       <c r="A759">
-        <v>566815</v>
+        <v>572385</v>
       </c>
     </row>
     <row r="760" spans="1:1">
       <c r="A760">
-        <v>567193</v>
+        <v>572697</v>
       </c>
     </row>
     <row r="761" spans="1:1">
       <c r="A761">
-        <v>567254</v>
+        <v>572719</v>
       </c>
     </row>
     <row r="762" spans="1:1">
       <c r="A762">
-        <v>567501</v>
+        <v>572785</v>
       </c>
     </row>
     <row r="763" spans="1:1">
       <c r="A763">
-        <v>568130</v>
+        <v>573933</v>
       </c>
     </row>
     <row r="764" spans="1:1">
       <c r="A764">
-        <v>570667</v>
+        <v>574040</v>
       </c>
     </row>
     <row r="765" spans="1:1">
       <c r="A765">
-        <v>571422</v>
+        <v>574079</v>
       </c>
     </row>
     <row r="766" spans="1:1">
       <c r="A766">
-        <v>572146</v>
+        <v>574656</v>
       </c>
     </row>
     <row r="767" spans="1:1">
       <c r="A767">
-        <v>572385</v>
+        <v>574839</v>
       </c>
     </row>
     <row r="768" spans="1:1">
       <c r="A768">
-        <v>572697</v>
+        <v>575204</v>
       </c>
     </row>
     <row r="769" spans="1:1">
       <c r="A769">
-        <v>572719</v>
+        <v>575811</v>
       </c>
     </row>
     <row r="770" spans="1:1">
       <c r="A770">
-        <v>572785</v>
+        <v>577280</v>
       </c>
     </row>
     <row r="771" spans="1:1">
       <c r="A771">
-        <v>573933</v>
+        <v>577285</v>
       </c>
     </row>
     <row r="772" spans="1:1">
       <c r="A772">
-        <v>574040</v>
+        <v>578011</v>
       </c>
     </row>
     <row r="773" spans="1:1">
       <c r="A773">
-        <v>574079</v>
+        <v>578101</v>
       </c>
     </row>
     <row r="774" spans="1:1">
       <c r="A774">
-        <v>574656</v>
+        <v>578224</v>
       </c>
     </row>
     <row r="775" spans="1:1">
       <c r="A775">
-        <v>574839</v>
+        <v>578506</v>
       </c>
     </row>
     <row r="776" spans="1:1">
       <c r="A776">
-        <v>575204</v>
+        <v>580898</v>
       </c>
     </row>
     <row r="777" spans="1:1">
       <c r="A777">
-        <v>575811</v>
+        <v>581394</v>
       </c>
     </row>
     <row r="778" spans="1:1">
       <c r="A778">
-        <v>577280</v>
+        <v>581906</v>
       </c>
     </row>
     <row r="779" spans="1:1">
       <c r="A779">
-        <v>577285</v>
+        <v>581983</v>
       </c>
     </row>
     <row r="780" spans="1:1">
       <c r="A780">
-        <v>578011</v>
+        <v>582213</v>
       </c>
     </row>
     <row r="781" spans="1:1">
       <c r="A781">
-        <v>578101</v>
+        <v>582715</v>
       </c>
     </row>
     <row r="782" spans="1:1">
       <c r="A782">
-        <v>578224</v>
+        <v>582771</v>
       </c>
     </row>
     <row r="783" spans="1:1">
       <c r="A783">
-        <v>578506</v>
+        <v>583777</v>
       </c>
     </row>
     <row r="784" spans="1:1">
       <c r="A784">
-        <v>580898</v>
+        <v>584424</v>
       </c>
     </row>
     <row r="785" spans="1:1">
       <c r="A785">
-        <v>581394</v>
+        <v>584573</v>
       </c>
     </row>
     <row r="786" spans="1:1">
       <c r="A786">
-        <v>581906</v>
+        <v>584661</v>
       </c>
     </row>
     <row r="787" spans="1:1">
       <c r="A787">
-        <v>581983</v>
+        <v>584917</v>
       </c>
     </row>
     <row r="788" spans="1:1">
       <c r="A788">
-        <v>582213</v>
+        <v>585151</v>
       </c>
     </row>
     <row r="789" spans="1:1">
       <c r="A789">
-        <v>582715</v>
+        <v>586725</v>
       </c>
     </row>
     <row r="790" spans="1:1">
       <c r="A790">
-        <v>582771</v>
+        <v>589621</v>
       </c>
     </row>
     <row r="791" spans="1:1">
       <c r="A791">
-        <v>583777</v>
+        <v>589726</v>
       </c>
     </row>
     <row r="792" spans="1:1">
       <c r="A792">
-        <v>584424</v>
+        <v>590491</v>
       </c>
     </row>
     <row r="793" spans="1:1">
       <c r="A793">
-        <v>584573</v>
+        <v>591905</v>
       </c>
     </row>
     <row r="794" spans="1:1">
       <c r="A794">
-        <v>584661</v>
+        <v>592148</v>
       </c>
     </row>
     <row r="795" spans="1:1">
       <c r="A795">
-        <v>584917</v>
+        <v>592628</v>
       </c>
     </row>
     <row r="796" spans="1:1">
       <c r="A796">
-        <v>585151</v>
+        <v>592985</v>
       </c>
     </row>
     <row r="797" spans="1:1">
       <c r="A797">
-        <v>586725</v>
+        <v>593023</v>
       </c>
     </row>
     <row r="798" spans="1:1">
       <c r="A798">
-        <v>589621</v>
+        <v>593297</v>
       </c>
     </row>
     <row r="799" spans="1:1">
       <c r="A799">
-        <v>589726</v>
+        <v>593460</v>
       </c>
     </row>
     <row r="800" spans="1:1">
       <c r="A800">
-        <v>590491</v>
+        <v>593533</v>
       </c>
     </row>
     <row r="801" spans="1:1">
       <c r="A801">
-        <v>591905</v>
+        <v>593587</v>
       </c>
     </row>
     <row r="802" spans="1:1">
       <c r="A802">
-        <v>592148</v>
+        <v>594309</v>
       </c>
     </row>
     <row r="803" spans="1:1">
       <c r="A803">
-        <v>592628</v>
+        <v>594352</v>
       </c>
     </row>
     <row r="804" spans="1:1">
       <c r="A804">
-        <v>593023</v>
+        <v>595437</v>
       </c>
     </row>
     <row r="805" spans="1:1">
       <c r="A805">
-        <v>593297</v>
+        <v>595502</v>
       </c>
     </row>
     <row r="806" spans="1:1">
       <c r="A806">
-        <v>593533</v>
+        <v>595610</v>
       </c>
     </row>
     <row r="807" spans="1:1">
       <c r="A807">
-        <v>593587</v>
+        <v>597481</v>
       </c>
     </row>
     <row r="808" spans="1:1">
       <c r="A808">
-        <v>594309</v>
+        <v>597606</v>
       </c>
     </row>
     <row r="809" spans="1:1">
       <c r="A809">
-        <v>595437</v>
+        <v>597612</v>
       </c>
     </row>
     <row r="810" spans="1:1">
       <c r="A810">
-        <v>595502</v>
+        <v>597628</v>
       </c>
     </row>
     <row r="811" spans="1:1">
       <c r="A811">
-        <v>595610</v>
+        <v>597853</v>
       </c>
     </row>
     <row r="812" spans="1:1">
       <c r="A812">
-        <v>597481</v>
+        <v>599387</v>
       </c>
     </row>
     <row r="813" spans="1:1">
       <c r="A813">
-        <v>597606</v>
+        <v>599447</v>
       </c>
     </row>
     <row r="814" spans="1:1">
       <c r="A814">
-        <v>597612</v>
+        <v>599505</v>
       </c>
     </row>
     <row r="815" spans="1:1">
       <c r="A815">
-        <v>597628</v>
+        <v>599510</v>
       </c>
     </row>
     <row r="816" spans="1:1">
       <c r="A816">
-        <v>597853</v>
+        <v>599798</v>
       </c>
     </row>
     <row r="817" spans="1:1">
       <c r="A817">
-        <v>599387</v>
+        <v>599912</v>
       </c>
     </row>
     <row r="818" spans="1:1">
       <c r="A818">
-        <v>599505</v>
+        <v>600428</v>
       </c>
     </row>
     <row r="819" spans="1:1">
       <c r="A819">
-        <v>599510</v>
+        <v>600749</v>
       </c>
     </row>
     <row r="820" spans="1:1">
       <c r="A820">
-        <v>599912</v>
+        <v>601599</v>
       </c>
     </row>
     <row r="821" spans="1:1">
       <c r="A821">
-        <v>600421</v>
+        <v>601714</v>
       </c>
     </row>
     <row r="822" spans="1:1">
       <c r="A822">
-        <v>600428</v>
+        <v>602030</v>
       </c>
     </row>
     <row r="823" spans="1:1">
       <c r="A823">
-        <v>600749</v>
+        <v>602164</v>
       </c>
     </row>
     <row r="824" spans="1:1">
       <c r="A824">
-        <v>601599</v>
+        <v>602812</v>
       </c>
     </row>
     <row r="825" spans="1:1">
       <c r="A825">
-        <v>601714</v>
+        <v>603065</v>
       </c>
     </row>
     <row r="826" spans="1:1">
       <c r="A826">
-        <v>602030</v>
+        <v>603852</v>
       </c>
     </row>
     <row r="827" spans="1:1">
       <c r="A827">
-        <v>602164</v>
+        <v>603917</v>
       </c>
     </row>
     <row r="828" spans="1:1">
       <c r="A828">
-        <v>602812</v>
+        <v>604101</v>
       </c>
     </row>
     <row r="829" spans="1:1">
       <c r="A829">
-        <v>603065</v>
+        <v>605444</v>
       </c>
     </row>
     <row r="830" spans="1:1">
       <c r="A830">
-        <v>603852</v>
+        <v>606818</v>
       </c>
     </row>
     <row r="831" spans="1:1">
       <c r="A831">
-        <v>603917</v>
+        <v>606845</v>
       </c>
     </row>
     <row r="832" spans="1:1">
       <c r="A832">
-        <v>604101</v>
+        <v>606862</v>
       </c>
     </row>
     <row r="833" spans="1:1">
       <c r="A833">
-        <v>605444</v>
+        <v>607379</v>
       </c>
     </row>
     <row r="834" spans="1:1">
       <c r="A834">
-        <v>606818</v>
+        <v>607948</v>
       </c>
     </row>
     <row r="835" spans="1:1">
       <c r="A835">
-        <v>606845</v>
+        <v>607958</v>
       </c>
     </row>
     <row r="836" spans="1:1">
       <c r="A836">
-        <v>606862</v>
+        <v>608004</v>
       </c>
     </row>
     <row r="837" spans="1:1">
       <c r="A837">
-        <v>607948</v>
+        <v>608448</v>
       </c>
     </row>
     <row r="838" spans="1:1">
       <c r="A838">
-        <v>607958</v>
+        <v>608510</v>
       </c>
     </row>
     <row r="839" spans="1:1">
       <c r="A839">
-        <v>608004</v>
+        <v>609082</v>
       </c>
     </row>
     <row r="840" spans="1:1">
       <c r="A840">
-        <v>608448</v>
+        <v>609246</v>
       </c>
     </row>
     <row r="841" spans="1:1">
       <c r="A841">
-        <v>608510</v>
+        <v>609278</v>
       </c>
     </row>
     <row r="842" spans="1:1">
       <c r="A842">
-        <v>609057</v>
+        <v>609437</v>
       </c>
     </row>
     <row r="843" spans="1:1">
       <c r="A843">
-        <v>609082</v>
+        <v>609453</v>
       </c>
     </row>
     <row r="844" spans="1:1">
       <c r="A844">
-        <v>609246</v>
+        <v>609464</v>
       </c>
     </row>
     <row r="845" spans="1:1">
       <c r="A845">
-        <v>609278</v>
+        <v>609937</v>
       </c>
     </row>
     <row r="846" spans="1:1">
       <c r="A846">
-        <v>609437</v>
+        <v>610010</v>
       </c>
     </row>
     <row r="847" spans="1:1">
       <c r="A847">
-        <v>609453</v>
+        <v>610299</v>
       </c>
     </row>
     <row r="848" spans="1:1">
       <c r="A848">
-        <v>609464</v>
+        <v>611318</v>
       </c>
     </row>
     <row r="849" spans="1:1">
       <c r="A849">
-        <v>609937</v>
+        <v>611406</v>
       </c>
     </row>
     <row r="850" spans="1:1">
       <c r="A850">
-        <v>610260</v>
+        <v>611413</v>
       </c>
     </row>
     <row r="851" spans="1:1">
       <c r="A851">
-        <v>610299</v>
+        <v>611544</v>
       </c>
     </row>
     <row r="852" spans="1:1">
       <c r="A852">
-        <v>611318</v>
+        <v>611751</v>
       </c>
     </row>
     <row r="853" spans="1:1">
       <c r="A853">
-        <v>611406</v>
+        <v>612058</v>
       </c>
     </row>
     <row r="854" spans="1:1">
       <c r="A854">
-        <v>611413</v>
+        <v>612263</v>
       </c>
     </row>
     <row r="855" spans="1:1">
       <c r="A855">
-        <v>611751</v>
+        <v>612463</v>
       </c>
     </row>
     <row r="856" spans="1:1">
       <c r="A856">
-        <v>612058</v>
+        <v>612578</v>
       </c>
     </row>
     <row r="857" spans="1:1">
       <c r="A857">
-        <v>612263</v>
+        <v>613461</v>
       </c>
     </row>
     <row r="858" spans="1:1">
       <c r="A858">
-        <v>612463</v>
+        <v>613511</v>
       </c>
     </row>
     <row r="859" spans="1:1">
       <c r="A859">
-        <v>612578</v>
+        <v>613836</v>
       </c>
     </row>
     <row r="860" spans="1:1">
       <c r="A860">
-        <v>613461</v>
+        <v>613891</v>
       </c>
     </row>
     <row r="861" spans="1:1">
       <c r="A861">
-        <v>613511</v>
+        <v>614377</v>
       </c>
     </row>
     <row r="862" spans="1:1">
       <c r="A862">
-        <v>613836</v>
+        <v>614421</v>
       </c>
     </row>
     <row r="863" spans="1:1">
       <c r="A863">
-        <v>613891</v>
+        <v>614480</v>
       </c>
     </row>
     <row r="864" spans="1:1">
       <c r="A864">
-        <v>614377</v>
+        <v>614546</v>
       </c>
     </row>
     <row r="865" spans="1:1">
       <c r="A865">
-        <v>614421</v>
+        <v>615352</v>
       </c>
     </row>
     <row r="866" spans="1:1">
       <c r="A866">
-        <v>614546</v>
+        <v>615571</v>
       </c>
     </row>
     <row r="867" spans="1:1">
       <c r="A867">
-        <v>615352</v>
+        <v>616014</v>
       </c>
     </row>
     <row r="868" spans="1:1">
       <c r="A868">
-        <v>615571</v>
+        <v>616192</v>
       </c>
     </row>
     <row r="869" spans="1:1">
       <c r="A869">
-        <v>616014</v>
+        <v>616422</v>
       </c>
     </row>
     <row r="870" spans="1:1">
       <c r="A870">
-        <v>616192</v>
+        <v>616727</v>
       </c>
     </row>
     <row r="871" spans="1:1">
       <c r="A871">
-        <v>616422</v>
+        <v>616865</v>
       </c>
     </row>
     <row r="872" spans="1:1">
       <c r="A872">
-        <v>616727</v>
+        <v>617314</v>
       </c>
     </row>
     <row r="873" spans="1:1">
       <c r="A873">
-        <v>616865</v>
+        <v>617463</v>
       </c>
     </row>
     <row r="874" spans="1:1">
       <c r="A874">
-        <v>617314</v>
+        <v>617878</v>
       </c>
     </row>
     <row r="875" spans="1:1">
       <c r="A875">
-        <v>617463</v>
+        <v>618286</v>
       </c>
     </row>
     <row r="876" spans="1:1">
       <c r="A876">
-        <v>617878</v>
+        <v>620124</v>
       </c>
     </row>
     <row r="877" spans="1:1">
       <c r="A877">
-        <v>618286</v>
+        <v>620383</v>
       </c>
     </row>
     <row r="878" spans="1:1">
       <c r="A878">
-        <v>618727</v>
+        <v>620643</v>
       </c>
     </row>
     <row r="879" spans="1:1">
       <c r="A879">
-        <v>620124</v>
+        <v>620691</v>
       </c>
     </row>
     <row r="880" spans="1:1">
       <c r="A880">
-        <v>620383</v>
+        <v>620970</v>
       </c>
     </row>
     <row r="881" spans="1:1">
       <c r="A881">
-        <v>620643</v>
+        <v>621015</v>
       </c>
     </row>
     <row r="882" spans="1:1">
       <c r="A882">
-        <v>620691</v>
+        <v>621249</v>
       </c>
     </row>
     <row r="883" spans="1:1">
       <c r="A883">
-        <v>620970</v>
+        <v>621305</v>
       </c>
     </row>
     <row r="884" spans="1:1">
       <c r="A884">
-        <v>621015</v>
+        <v>621330</v>
       </c>
     </row>
     <row r="885" spans="1:1">
       <c r="A885">
-        <v>621249</v>
+        <v>621361</v>
       </c>
     </row>
     <row r="886" spans="1:1">
       <c r="A886">
-        <v>621305</v>
+        <v>621533</v>
       </c>
     </row>
     <row r="887" spans="1:1">
       <c r="A887">
-        <v>621330</v>
+        <v>621596</v>
       </c>
     </row>
     <row r="888" spans="1:1">
       <c r="A888">
-        <v>621361</v>
+        <v>621807</v>
       </c>
     </row>
     <row r="889" spans="1:1">
       <c r="A889">
-        <v>621533</v>
+        <v>621841</v>
       </c>
     </row>
     <row r="890" spans="1:1">
       <c r="A890">
-        <v>621596</v>
+        <v>621925</v>
       </c>
     </row>
     <row r="891" spans="1:1">
       <c r="A891">
-        <v>621807</v>
+        <v>621982</v>
       </c>
     </row>
     <row r="892" spans="1:1">
       <c r="A892">
-        <v>621841</v>
+        <v>622131</v>
       </c>
     </row>
     <row r="893" spans="1:1">
       <c r="A893">
-        <v>621859</v>
+        <v>622155</v>
       </c>
     </row>
     <row r="894" spans="1:1">
       <c r="A894">
-        <v>621925</v>
+        <v>622450</v>
       </c>
     </row>
     <row r="895" spans="1:1">
       <c r="A895">
-        <v>621982</v>
+        <v>622533</v>
       </c>
     </row>
     <row r="896" spans="1:1">
       <c r="A896">
-        <v>622068</v>
+        <v>622536</v>
       </c>
     </row>
     <row r="897" spans="1:1">
       <c r="A897">
-        <v>622131</v>
+        <v>622539</v>
       </c>
     </row>
     <row r="898" spans="1:1">
       <c r="A898">
-        <v>622450</v>
+        <v>622555</v>
       </c>
     </row>
     <row r="899" spans="1:1">
       <c r="A899">
-        <v>622533</v>
+        <v>622741</v>
       </c>
     </row>
     <row r="900" spans="1:1">
       <c r="A900">
-        <v>622536</v>
+        <v>622898</v>
       </c>
     </row>
     <row r="901" spans="1:1">
       <c r="A901">
-        <v>622539</v>
+        <v>623442</v>
       </c>
     </row>
     <row r="902" spans="1:1">
       <c r="A902">
-        <v>622555</v>
+        <v>623459</v>
       </c>
     </row>
     <row r="903" spans="1:1">
       <c r="A903">
-        <v>622558</v>
+        <v>623506</v>
       </c>
     </row>
     <row r="904" spans="1:1">
       <c r="A904">
-        <v>622741</v>
+        <v>623898</v>
       </c>
     </row>
     <row r="905" spans="1:1">
       <c r="A905">
-        <v>622898</v>
+        <v>624466</v>
       </c>
     </row>
     <row r="906" spans="1:1">
       <c r="A906">
-        <v>623459</v>
+        <v>624536</v>
       </c>
     </row>
     <row r="907" spans="1:1">
       <c r="A907">
-        <v>623506</v>
+        <v>624581</v>
       </c>
     </row>
     <row r="908" spans="1:1">
       <c r="A908">
-        <v>623898</v>
+        <v>624762</v>
       </c>
     </row>
     <row r="909" spans="1:1">
       <c r="A909">
-        <v>624466</v>
+        <v>624829</v>
       </c>
     </row>
     <row r="910" spans="1:1">
       <c r="A910">
-        <v>624536</v>
+        <v>625153</v>
       </c>
     </row>
     <row r="911" spans="1:1">
       <c r="A911">
-        <v>624581</v>
+        <v>625298</v>
       </c>
     </row>
     <row r="912" spans="1:1">
       <c r="A912">
-        <v>624762</v>
+        <v>625857</v>
       </c>
     </row>
     <row r="913" spans="1:1">
       <c r="A913">
-        <v>624829</v>
+        <v>626350</v>
       </c>
     </row>
     <row r="914" spans="1:1">
       <c r="A914">
-        <v>625153</v>
+        <v>626939</v>
       </c>
     </row>
     <row r="915" spans="1:1">
       <c r="A915">
-        <v>625298</v>
+        <v>627429</v>
       </c>
     </row>
     <row r="916" spans="1:1">
       <c r="A916">
-        <v>625857</v>
+        <v>627553</v>
       </c>
     </row>
     <row r="917" spans="1:1">
       <c r="A917">
-        <v>626350</v>
+        <v>628529</v>
       </c>
     </row>
     <row r="918" spans="1:1">
       <c r="A918">
-        <v>626939</v>
+        <v>628544</v>
       </c>
     </row>
     <row r="919" spans="1:1">
       <c r="A919">
-        <v>627429</v>
+        <v>628868</v>
       </c>
     </row>
     <row r="920" spans="1:1">
       <c r="A920">
-        <v>627553</v>
+        <v>630470</v>
       </c>
     </row>
     <row r="921" spans="1:1">
       <c r="A921">
-        <v>628529</v>
+        <v>630983</v>
       </c>
     </row>
     <row r="922" spans="1:1">
       <c r="A922">
-        <v>628544</v>
+        <v>631293</v>
       </c>
     </row>
     <row r="923" spans="1:1">
       <c r="A923">
-        <v>628868</v>
+        <v>631486</v>
       </c>
     </row>
     <row r="924" spans="1:1">
       <c r="A924">
-        <v>630470</v>
+        <v>632163</v>
       </c>
     </row>
     <row r="925" spans="1:1">
       <c r="A925">
-        <v>630983</v>
+        <v>633123</v>
       </c>
     </row>
     <row r="926" spans="1:1">
       <c r="A926">
-        <v>631293</v>
+        <v>633302</v>
       </c>
     </row>
     <row r="927" spans="1:1">
       <c r="A927">
-        <v>631486</v>
+        <v>633962</v>
       </c>
     </row>
     <row r="928" spans="1:1">
       <c r="A928">
-        <v>631745</v>
+        <v>634158</v>
       </c>
     </row>
     <row r="929" spans="1:1">
       <c r="A929">
-        <v>632163</v>
+        <v>634173</v>
       </c>
     </row>
     <row r="930" spans="1:1">
       <c r="A930">
-        <v>633123</v>
+        <v>634465</v>
       </c>
     </row>
     <row r="931" spans="1:1">
       <c r="A931">
-        <v>633302</v>
+        <v>634503</v>
       </c>
     </row>
     <row r="932" spans="1:1">
       <c r="A932">
-        <v>633962</v>
+        <v>634616</v>
       </c>
     </row>
     <row r="933" spans="1:1">
       <c r="A933">
-        <v>634158</v>
+        <v>634642</v>
       </c>
     </row>
     <row r="934" spans="1:1">
       <c r="A934">
-        <v>634465</v>
+        <v>634658</v>
       </c>
     </row>
     <row r="935" spans="1:1">
       <c r="A935">
-        <v>634503</v>
+        <v>634913</v>
       </c>
     </row>
     <row r="936" spans="1:1">
       <c r="A936">
-        <v>634603</v>
+        <v>635055</v>
       </c>
     </row>
     <row r="937" spans="1:1">
       <c r="A937">
-        <v>634616</v>
+        <v>635412</v>
       </c>
     </row>
     <row r="938" spans="1:1">
       <c r="A938">
-        <v>634642</v>
+        <v>635551</v>
       </c>
     </row>
     <row r="939" spans="1:1">
       <c r="A939">
-        <v>634658</v>
+        <v>635574</v>
       </c>
     </row>
     <row r="940" spans="1:1">
       <c r="A940">
-        <v>634913</v>
+        <v>635577</v>
       </c>
     </row>
     <row r="941" spans="1:1">
       <c r="A941">
-        <v>635055</v>
+        <v>635643</v>
       </c>
     </row>
     <row r="942" spans="1:1">
       <c r="A942">
-        <v>635412</v>
+        <v>635996</v>
       </c>
     </row>
     <row r="943" spans="1:1">
       <c r="A943">
-        <v>635421</v>
+        <v>636097</v>
       </c>
     </row>
     <row r="944" spans="1:1">
       <c r="A944">
-        <v>635476</v>
+        <v>636244</v>
       </c>
     </row>
     <row r="945" spans="1:1">
       <c r="A945">
-        <v>635551</v>
+        <v>636377</v>
       </c>
     </row>
     <row r="946" spans="1:1">
       <c r="A946">
-        <v>635561</v>
+        <v>636394</v>
       </c>
     </row>
     <row r="947" spans="1:1">
       <c r="A947">
-        <v>635574</v>
+        <v>636523</v>
       </c>
     </row>
     <row r="948" spans="1:1">
       <c r="A948">
-        <v>635643</v>
+        <v>636638</v>
       </c>
     </row>
     <row r="949" spans="1:1">
       <c r="A949">
-        <v>635996</v>
+        <v>636745</v>
       </c>
     </row>
     <row r="950" spans="1:1">
       <c r="A950">
-        <v>636097</v>
+        <v>637496</v>
       </c>
     </row>
     <row r="951" spans="1:1">
       <c r="A951">
-        <v>636394</v>
+        <v>637541</v>
       </c>
     </row>
     <row r="952" spans="1:1">
       <c r="A952">
-        <v>636523</v>
+        <v>637600</v>
       </c>
     </row>
     <row r="953" spans="1:1">
       <c r="A953">
-        <v>636638</v>
+        <v>637681</v>
       </c>
     </row>
     <row r="954" spans="1:1">
       <c r="A954">
-        <v>637453</v>
+        <v>637995</v>
       </c>
     </row>
     <row r="955" spans="1:1">
       <c r="A955">
-        <v>637496</v>
+        <v>638013</v>
       </c>
     </row>
     <row r="956" spans="1:1">
       <c r="A956">
-        <v>637541</v>
+        <v>638514</v>
       </c>
     </row>
     <row r="957" spans="1:1">
       <c r="A957">
-        <v>637600</v>
+        <v>638702</v>
       </c>
     </row>
     <row r="958" spans="1:1">
       <c r="A958">
-        <v>637681</v>
+        <v>638730</v>
       </c>
     </row>
     <row r="959" spans="1:1">
       <c r="A959">
-        <v>638013</v>
+        <v>638789</v>
       </c>
     </row>
     <row r="960" spans="1:1">
       <c r="A960">
-        <v>638102</v>
+        <v>638846</v>
       </c>
     </row>
     <row r="961" spans="1:1">
       <c r="A961">
-        <v>638514</v>
+        <v>640130</v>
       </c>
     </row>
     <row r="962" spans="1:1">
       <c r="A962">
-        <v>638702</v>
+        <v>640295</v>
       </c>
     </row>
     <row r="963" spans="1:1">
       <c r="A963">
-        <v>638730</v>
+        <v>640418</v>
       </c>
     </row>
     <row r="964" spans="1:1">
       <c r="A964">
-        <v>638789</v>
+        <v>640687</v>
       </c>
     </row>
     <row r="965" spans="1:1">
       <c r="A965">
-        <v>638846</v>
+        <v>640743</v>
       </c>
     </row>
     <row r="966" spans="1:1">
       <c r="A966">
-        <v>639394</v>
+        <v>640980</v>
       </c>
     </row>
     <row r="967" spans="1:1">
       <c r="A967">
-        <v>640130</v>
+        <v>640992</v>
       </c>
     </row>
     <row r="968" spans="1:1">
       <c r="A968">
-        <v>640287</v>
+        <v>641110</v>
       </c>
     </row>
     <row r="969" spans="1:1">
       <c r="A969">
-        <v>640295</v>
+        <v>641239</v>
       </c>
     </row>
     <row r="970" spans="1:1">
       <c r="A970">
-        <v>640418</v>
+        <v>641351</v>
       </c>
     </row>
     <row r="971" spans="1:1">
       <c r="A971">
-        <v>640687</v>
+        <v>641941</v>
       </c>
     </row>
     <row r="972" spans="1:1">
       <c r="A972">
-        <v>640823</v>
+        <v>643145</v>
       </c>
     </row>
     <row r="973" spans="1:1">
       <c r="A973">
-        <v>640980</v>
+        <v>643645</v>
       </c>
     </row>
     <row r="974" spans="1:1">
       <c r="A974">
-        <v>640992</v>
+        <v>643889</v>
       </c>
     </row>
     <row r="975" spans="1:1">
       <c r="A975">
-        <v>641110</v>
+        <v>644050</v>
       </c>
     </row>
     <row r="976" spans="1:1">
       <c r="A976">
-        <v>641239</v>
+        <v>644074</v>
       </c>
     </row>
     <row r="977" spans="1:1">
       <c r="A977">
-        <v>641351</v>
+        <v>644128</v>
       </c>
     </row>
     <row r="978" spans="1:1">
       <c r="A978">
-        <v>641941</v>
+        <v>645312</v>
       </c>
     </row>
     <row r="979" spans="1:1">
       <c r="A979">
-        <v>642726</v>
+        <v>645351</v>
       </c>
     </row>
     <row r="980" spans="1:1">
       <c r="A980">
-        <v>643145</v>
+        <v>645904</v>
       </c>
     </row>
     <row r="981" spans="1:1">
       <c r="A981">
-        <v>643645</v>
+        <v>646389</v>
       </c>
     </row>
     <row r="982" spans="1:1">
       <c r="A982">
-        <v>643889</v>
+        <v>647273</v>
       </c>
     </row>
     <row r="983" spans="1:1">
       <c r="A983">
-        <v>644050</v>
+        <v>647567</v>
       </c>
     </row>
     <row r="984" spans="1:1">
       <c r="A984">
-        <v>644074</v>
+        <v>647601</v>
       </c>
     </row>
     <row r="985" spans="1:1">
       <c r="A985">
-        <v>644972</v>
+        <v>647730</v>
       </c>
     </row>
     <row r="986" spans="1:1">
       <c r="A986">
-        <v>645312</v>
+        <v>648022</v>
       </c>
     </row>
     <row r="987" spans="1:1">
       <c r="A987">
-        <v>645904</v>
+        <v>648034</v>
       </c>
     </row>
     <row r="988" spans="1:1">
       <c r="A988">
-        <v>646389</v>
+        <v>648295</v>
       </c>
     </row>
     <row r="989" spans="1:1">
       <c r="A989">
-        <v>647273</v>
+        <v>648401</v>
       </c>
     </row>
     <row r="990" spans="1:1">
       <c r="A990">
-        <v>647567</v>
+        <v>648493</v>
       </c>
     </row>
     <row r="991" spans="1:1">
       <c r="A991">
-        <v>647601</v>
+        <v>648507</v>
       </c>
     </row>
     <row r="992" spans="1:1">
       <c r="A992">
-        <v>647730</v>
+        <v>649149</v>
       </c>
     </row>
     <row r="993" spans="1:1">
       <c r="A993">
-        <v>648022</v>
+        <v>649809</v>
       </c>
     </row>
     <row r="994" spans="1:1">
       <c r="A994">
-        <v>648295</v>
+        <v>650845</v>
       </c>
     </row>
     <row r="995" spans="1:1">
       <c r="A995">
-        <v>648401</v>
+        <v>651496</v>
       </c>
     </row>
     <row r="996" spans="1:1">
       <c r="A996">
-        <v>648493</v>
+        <v>651738</v>
       </c>
     </row>
     <row r="997" spans="1:1">
       <c r="A997">
-        <v>648507</v>
+        <v>651784</v>
       </c>
     </row>
     <row r="998" spans="1:1">
       <c r="A998">
-        <v>649149</v>
+        <v>651848</v>
       </c>
     </row>
     <row r="999" spans="1:1">
       <c r="A999">
-        <v>649345</v>
+        <v>652055</v>
       </c>
     </row>
     <row r="1000" spans="1:1">
       <c r="A1000">
-        <v>649809</v>
+        <v>652762</v>
       </c>
     </row>
     <row r="1001" spans="1:1">
       <c r="A1001">
-        <v>650845</v>
+        <v>652891</v>
       </c>
     </row>
     <row r="1002" spans="1:1">
       <c r="A1002">
-        <v>651496</v>
+        <v>653161</v>
       </c>
     </row>
     <row r="1003" spans="1:1">
       <c r="A1003">
-        <v>651738</v>
+        <v>653365</v>
       </c>
     </row>
     <row r="1004" spans="1:1">
       <c r="A1004">
-        <v>651784</v>
+        <v>653608</v>
       </c>
     </row>
     <row r="1005" spans="1:1">
       <c r="A1005">
-        <v>651848</v>
+        <v>654090</v>
       </c>
     </row>
     <row r="1006" spans="1:1">
       <c r="A1006">
-        <v>652055</v>
+        <v>654177</v>
       </c>
     </row>
     <row r="1007" spans="1:1">
       <c r="A1007">
-        <v>652762</v>
+        <v>658904</v>
       </c>
     </row>
     <row r="1008" spans="1:1">
       <c r="A1008">
-        <v>652891</v>
+        <v>659481</v>
       </c>
     </row>
     <row r="1009" spans="1:1">
       <c r="A1009">
-        <v>653161</v>
+        <v>659856</v>
       </c>
     </row>
     <row r="1010" spans="1:1">
       <c r="A1010">
-        <v>653365</v>
+        <v>659919</v>
       </c>
     </row>
     <row r="1011" spans="1:1">
       <c r="A1011">
-        <v>653608</v>
+        <v>660160</v>
       </c>
     </row>
     <row r="1012" spans="1:1">
       <c r="A1012">
-        <v>654090</v>
+        <v>660250</v>
       </c>
     </row>
     <row r="1013" spans="1:1">
       <c r="A1013">
-        <v>654177</v>
+        <v>661043</v>
       </c>
     </row>
     <row r="1014" spans="1:1">
       <c r="A1014">
-        <v>658904</v>
+        <v>661243</v>
       </c>
     </row>
     <row r="1015" spans="1:1">
       <c r="A1015">
-        <v>659481</v>
+        <v>661311</v>
       </c>
     </row>
     <row r="1016" spans="1:1">
       <c r="A1016">
-        <v>659856</v>
+        <v>661453</v>
       </c>
     </row>
     <row r="1017" spans="1:1">
       <c r="A1017">
-        <v>660160</v>
+        <v>661529</v>
       </c>
     </row>
     <row r="1018" spans="1:1">
       <c r="A1018">
-        <v>660250</v>
+        <v>662308</v>
       </c>
     </row>
     <row r="1019" spans="1:1">
       <c r="A1019">
-        <v>661043</v>
+        <v>662374</v>
       </c>
     </row>
     <row r="1020" spans="1:1">
       <c r="A1020">
-        <v>661243</v>
+        <v>663000</v>
       </c>
     </row>
     <row r="1021" spans="1:1">
       <c r="A1021">
-        <v>661311</v>
+        <v>663674</v>
       </c>
     </row>
     <row r="1022" spans="1:1">
       <c r="A1022">
-        <v>661447</v>
+        <v>666180</v>
       </c>
     </row>
     <row r="1023" spans="1:1">
       <c r="A1023">
-        <v>661453</v>
+        <v>666231</v>
       </c>
     </row>
     <row r="1024" spans="1:1">
       <c r="A1024">
-        <v>661529</v>
+        <v>666358</v>
       </c>
     </row>
     <row r="1025" spans="1:1">
       <c r="A1025">
-        <v>662308</v>
+        <v>666999</v>
       </c>
     </row>
     <row r="1026" spans="1:1">
       <c r="A1026">
-        <v>662328</v>
+        <v>667288</v>
       </c>
     </row>
     <row r="1027" spans="1:1">
       <c r="A1027">
-        <v>662374</v>
+        <v>667389</v>
       </c>
     </row>
     <row r="1028" spans="1:1">
       <c r="A1028">
-        <v>663000</v>
+        <v>669134</v>
       </c>
     </row>
     <row r="1029" spans="1:1">
       <c r="A1029">
-        <v>663674</v>
+        <v>669332</v>
       </c>
     </row>
     <row r="1030" spans="1:1">
       <c r="A1030">
-        <v>666180</v>
+        <v>669444</v>
       </c>
     </row>
     <row r="1031" spans="1:1">
       <c r="A1031">
-        <v>666358</v>
+        <v>669677</v>
       </c>
     </row>
     <row r="1032" spans="1:1">
       <c r="A1032">
-        <v>666999</v>
+        <v>669770</v>
       </c>
     </row>
     <row r="1033" spans="1:1">
       <c r="A1033">
-        <v>667288</v>
+        <v>669837</v>
       </c>
     </row>
     <row r="1034" spans="1:1">
       <c r="A1034">
-        <v>667389</v>
+        <v>669888</v>
       </c>
     </row>
     <row r="1035" spans="1:1">
       <c r="A1035">
-        <v>669134</v>
+        <v>670714</v>
       </c>
     </row>
     <row r="1036" spans="1:1">
       <c r="A1036">
-        <v>669332</v>
+        <v>670814</v>
       </c>
     </row>
     <row r="1037" spans="1:1">
       <c r="A1037">
-        <v>669444</v>
+        <v>671113</v>
       </c>
     </row>
     <row r="1038" spans="1:1">
       <c r="A1038">
-        <v>669677</v>
+        <v>671172</v>
       </c>
     </row>
     <row r="1039" spans="1:1">
       <c r="A1039">
-        <v>669837</v>
+        <v>674097</v>
       </c>
     </row>
     <row r="1040" spans="1:1">
       <c r="A1040">
-        <v>669888</v>
+        <v>675690</v>
       </c>
     </row>
     <row r="1041" spans="1:1">
       <c r="A1041">
-        <v>670714</v>
+        <v>675815</v>
       </c>
     </row>
     <row r="1042" spans="1:1">
       <c r="A1042">
-        <v>670814</v>
+        <v>681488</v>
       </c>
     </row>
     <row r="1043" spans="1:1">
       <c r="A1043">
-        <v>671113</v>
+        <v>681585</v>
       </c>
     </row>
     <row r="1044" spans="1:1">
       <c r="A1044">
-        <v>671172</v>
+        <v>682594</v>
       </c>
     </row>
     <row r="1045" spans="1:1">
       <c r="A1045">
-        <v>674097</v>
+        <v>685598</v>
       </c>
     </row>
     <row r="1046" spans="1:1">
       <c r="A1046">
-        <v>675690</v>
+        <v>686120</v>
       </c>
     </row>
     <row r="1047" spans="1:1">
       <c r="A1047">
-        <v>675815</v>
+        <v>686380</v>
       </c>
     </row>
     <row r="1048" spans="1:1">
       <c r="A1048">
-        <v>681488</v>
+        <v>687354</v>
       </c>
     </row>
     <row r="1049" spans="1:1">
       <c r="A1049">
-        <v>681585</v>
+        <v>687598</v>
       </c>
     </row>
     <row r="1050" spans="1:1">
       <c r="A1050">
-        <v>682594</v>
+        <v>687734</v>
       </c>
     </row>
     <row r="1051" spans="1:1">
       <c r="A1051">
-        <v>683958</v>
+        <v>688622</v>
       </c>
     </row>
     <row r="1052" spans="1:1">
       <c r="A1052">
-        <v>685598</v>
+        <v>689528</v>
       </c>
     </row>
     <row r="1053" spans="1:1">
       <c r="A1053">
-        <v>686120</v>
+        <v>690636</v>
       </c>
     </row>
     <row r="1054" spans="1:1">
       <c r="A1054">
-        <v>686380</v>
+        <v>691464</v>
       </c>
     </row>
     <row r="1055" spans="1:1">
       <c r="A1055">
-        <v>687354</v>
+        <v>692467</v>
       </c>
     </row>
     <row r="1056" spans="1:1">
       <c r="A1056">
-        <v>687598</v>
+        <v>694090</v>
       </c>
     </row>
     <row r="1057" spans="1:1">
       <c r="A1057">
-        <v>687734</v>
+        <v>694354</v>
       </c>
     </row>
     <row r="1058" spans="1:1">
       <c r="A1058">
-        <v>688622</v>
+        <v>695806</v>
       </c>
     </row>
     <row r="1059" spans="1:1">
       <c r="A1059">
-        <v>689528</v>
+        <v>695910</v>
       </c>
     </row>
     <row r="1060" spans="1:1">
       <c r="A1060">
-        <v>690636</v>
+        <v>695928</v>
       </c>
     </row>
     <row r="1061" spans="1:1">
       <c r="A1061">
-        <v>691464</v>
+        <v>696498</v>
       </c>
     </row>
     <row r="1062" spans="1:1">
       <c r="A1062">
-        <v>692467</v>
+        <v>698120</v>
       </c>
     </row>
     <row r="1063" spans="1:1">
       <c r="A1063">
-        <v>694090</v>
+        <v>698642</v>
       </c>
     </row>
     <row r="1064" spans="1:1">
       <c r="A1064">
-        <v>694354</v>
+        <v>698831</v>
       </c>
     </row>
     <row r="1065" spans="1:1">
       <c r="A1065">
-        <v>695806</v>
+        <v>698918</v>
       </c>
     </row>
     <row r="1066" spans="1:1">
       <c r="A1066">
-        <v>695910</v>
+        <v>699072</v>
       </c>
     </row>
     <row r="1067" spans="1:1">
       <c r="A1067">
-        <v>696498</v>
+        <v>699738</v>
       </c>
     </row>
     <row r="1068" spans="1:1">
       <c r="A1068">
-        <v>698120</v>
+        <v>700058</v>
       </c>
     </row>
     <row r="1069" spans="1:1">
       <c r="A1069">
-        <v>698642</v>
+        <v>701220</v>
       </c>
     </row>
     <row r="1070" spans="1:1">
       <c r="A1070">
-        <v>698831</v>
+        <v>702173</v>
       </c>
     </row>
     <row r="1071" spans="1:1">
       <c r="A1071">
-        <v>698918</v>
+        <v>703254</v>
       </c>
     </row>
     <row r="1072" spans="1:1">
       <c r="A1072">
-        <v>699072</v>
+        <v>704373</v>
       </c>
     </row>
     <row r="1073" spans="1:1">
       <c r="A1073">
-        <v>699738</v>
+        <v>704488</v>
       </c>
     </row>
     <row r="1074" spans="1:1">
       <c r="A1074">
-        <v>700058</v>
+        <v>704959</v>
       </c>
     </row>
     <row r="1075" spans="1:1">
       <c r="A1075">
-        <v>701220</v>
+        <v>705015</v>
       </c>
     </row>
     <row r="1076" spans="1:1">
       <c r="A1076">
-        <v>702173</v>
+        <v>705522</v>
       </c>
     </row>
     <row r="1077" spans="1:1">
       <c r="A1077">
-        <v>703254</v>
+        <v>706024</v>
       </c>
     </row>
     <row r="1078" spans="1:1">
       <c r="A1078">
-        <v>704373</v>
+        <v>706256</v>
       </c>
     </row>
     <row r="1079" spans="1:1">
       <c r="A1079">
-        <v>704488</v>
+        <v>706262</v>
       </c>
     </row>
     <row r="1080" spans="1:1">
       <c r="A1080">
-        <v>704959</v>
+        <v>706272</v>
       </c>
     </row>
     <row r="1081" spans="1:1">
       <c r="A1081">
-        <v>705015</v>
+        <v>707175</v>
       </c>
     </row>
     <row r="1082" spans="1:1">
       <c r="A1082">
-        <v>705522</v>
+        <v>707660</v>
       </c>
     </row>
     <row r="1083" spans="1:1">
       <c r="A1083">
-        <v>706024</v>
+        <v>708177</v>
       </c>
     </row>
     <row r="1084" spans="1:1">
       <c r="A1084">
-        <v>706256</v>
+        <v>709148</v>
       </c>
     </row>
     <row r="1085" spans="1:1">
       <c r="A1085">
-        <v>706262</v>
+        <v>710988</v>
       </c>
     </row>
     <row r="1086" spans="1:1">
       <c r="A1086">
-        <v>706272</v>
+        <v>711330</v>
       </c>
     </row>
     <row r="1087" spans="1:1">
       <c r="A1087">
-        <v>707175</v>
+        <v>711579</v>
       </c>
     </row>
     <row r="1088" spans="1:1">
       <c r="A1088">
-        <v>707660</v>
+        <v>712694</v>
       </c>
     </row>
     <row r="1089" spans="1:1">
       <c r="A1089">
-        <v>708177</v>
+        <v>713036</v>
       </c>
     </row>
     <row r="1090" spans="1:1">
       <c r="A1090">
-        <v>709148</v>
+        <v>714274</v>
       </c>
     </row>
     <row r="1091" spans="1:1">
       <c r="A1091">
-        <v>710988</v>
+        <v>714808</v>
       </c>
     </row>
     <row r="1092" spans="1:1">
       <c r="A1092">
-        <v>711330</v>
+        <v>714830</v>
       </c>
     </row>
     <row r="1093" spans="1:1">
       <c r="A1093">
-        <v>711579</v>
+        <v>715062</v>
       </c>
     </row>
     <row r="1094" spans="1:1">
       <c r="A1094">
-        <v>712694</v>
+        <v>715608</v>
       </c>
     </row>
     <row r="1095" spans="1:1">
       <c r="A1095">
-        <v>714274</v>
+        <v>716728</v>
       </c>
     </row>
     <row r="1096" spans="1:1">
       <c r="A1096">
-        <v>714808</v>
+        <v>716803</v>
       </c>
     </row>
     <row r="1097" spans="1:1">
       <c r="A1097">
-        <v>715062</v>
+        <v>717032</v>
       </c>
     </row>
     <row r="1098" spans="1:1">
       <c r="A1098">
-        <v>715608</v>
+        <v>717417</v>
       </c>
     </row>
     <row r="1099" spans="1:1">
       <c r="A1099">
-        <v>716728</v>
+        <v>717826</v>
       </c>
     </row>
     <row r="1100" spans="1:1">
       <c r="A1100">
-        <v>716803</v>
+        <v>718088</v>
       </c>
     </row>
     <row r="1101" spans="1:1">
       <c r="A1101">
-        <v>717032</v>
+        <v>719791</v>
       </c>
     </row>
     <row r="1102" spans="1:1">
       <c r="A1102">
-        <v>717826</v>
+        <v>721268</v>
       </c>
     </row>
     <row r="1103" spans="1:1">
       <c r="A1103">
-        <v>718088</v>
+        <v>721678</v>
       </c>
     </row>
     <row r="1104" spans="1:1">
       <c r="A1104">
-        <v>719791</v>
+        <v>722348</v>
       </c>
     </row>
     <row r="1105" spans="1:1">
       <c r="A1105">
-        <v>721678</v>
+        <v>722741</v>
       </c>
     </row>
     <row r="1106" spans="1:1">
       <c r="A1106">
-        <v>722348</v>
+        <v>722762</v>
       </c>
     </row>
     <row r="1107" spans="1:1">
       <c r="A1107">
-        <v>722741</v>
+        <v>722908</v>
       </c>
     </row>
     <row r="1108" spans="1:1">
       <c r="A1108">
-        <v>722762</v>
+        <v>727269</v>
       </c>
     </row>
     <row r="1109" spans="1:1">
       <c r="A1109">
-        <v>722908</v>
+        <v>727373</v>
       </c>
     </row>
     <row r="1110" spans="1:1">
       <c r="A1110">
-        <v>727269</v>
+        <v>727904</v>
       </c>
     </row>
     <row r="1111" spans="1:1">
       <c r="A1111">
-        <v>727373</v>
+        <v>729934</v>
       </c>
     </row>
     <row r="1112" spans="1:1">
       <c r="A1112">
-        <v>727904</v>
+        <v>730392</v>
       </c>
     </row>
     <row r="1113" spans="1:1">
       <c r="A1113">
-        <v>729934</v>
+        <v>730499</v>
       </c>
     </row>
     <row r="1114" spans="1:1">
       <c r="A1114">
-        <v>730392</v>
+        <v>731343</v>
       </c>
     </row>
     <row r="1115" spans="1:1">
       <c r="A1115">
-        <v>730499</v>
+        <v>731721</v>
       </c>
     </row>
     <row r="1116" spans="1:1">
       <c r="A1116">
-        <v>731343</v>
+        <v>733142</v>
       </c>
     </row>
     <row r="1117" spans="1:1">
       <c r="A1117">
-        <v>731721</v>
+        <v>733631</v>
       </c>
     </row>
     <row r="1118" spans="1:1">
       <c r="A1118">
-        <v>733142</v>
+        <v>734439</v>
       </c>
     </row>
     <row r="1119" spans="1:1">
       <c r="A1119">
-        <v>733631</v>
+        <v>736398</v>
       </c>
     </row>
     <row r="1120" spans="1:1">
       <c r="A1120">
-        <v>734439</v>
+        <v>736891</v>
       </c>
     </row>
     <row r="1121" spans="1:1">
       <c r="A1121">
-        <v>736398</v>
+        <v>737006</v>
       </c>
     </row>
     <row r="1122" spans="1:1">
       <c r="A1122">
-        <v>736891</v>
+        <v>737437</v>
       </c>
     </row>
     <row r="1123" spans="1:1">
       <c r="A1123">
-        <v>737006</v>
+        <v>737490</v>
       </c>
     </row>
     <row r="1124" spans="1:1">
       <c r="A1124">
-        <v>737437</v>
+        <v>737584</v>
       </c>
     </row>
     <row r="1125" spans="1:1">
       <c r="A1125">
-        <v>737490</v>
+        <v>737875</v>
       </c>
     </row>
     <row r="1126" spans="1:1">
       <c r="A1126">
-        <v>737584</v>
+        <v>738025</v>
       </c>
     </row>
     <row r="1127" spans="1:1">
       <c r="A1127">
-        <v>737663</v>
+        <v>738153</v>
       </c>
     </row>
     <row r="1128" spans="1:1">
       <c r="A1128">
-        <v>737875</v>
+        <v>738395</v>
       </c>
     </row>
     <row r="1129" spans="1:1">
       <c r="A1129">
-        <v>738153</v>
+        <v>738930</v>
       </c>
     </row>
     <row r="1130" spans="1:1">
       <c r="A1130">
-        <v>738395</v>
+        <v>740552</v>
       </c>
     </row>
     <row r="1131" spans="1:1">
       <c r="A1131">
-        <v>738930</v>
+        <v>741209</v>
       </c>
     </row>
     <row r="1132" spans="1:1">
       <c r="A1132">
-        <v>740552</v>
+        <v>742070</v>
       </c>
     </row>
     <row r="1133" spans="1:1">
       <c r="A1133">
-        <v>741209</v>
+        <v>742218</v>
       </c>
     </row>
     <row r="1134" spans="1:1">
       <c r="A1134">
-        <v>742070</v>
+        <v>742488</v>
       </c>
     </row>
     <row r="1135" spans="1:1">
       <c r="A1135">
-        <v>742218</v>
+        <v>742767</v>
       </c>
     </row>
     <row r="1136" spans="1:1">
       <c r="A1136">
-        <v>742767</v>
+        <v>743146</v>
       </c>
     </row>
     <row r="1137" spans="1:1">
       <c r="A1137">
-        <v>743146</v>
+        <v>743340</v>
       </c>
     </row>
     <row r="1138" spans="1:1">
@@ -6077,112 +6077,112 @@
     </row>
     <row r="1140" spans="1:1">
       <c r="A1140">
-        <v>745088</v>
+        <v>746029</v>
       </c>
     </row>
     <row r="1141" spans="1:1">
       <c r="A1141">
-        <v>746029</v>
+        <v>746439</v>
       </c>
     </row>
     <row r="1142" spans="1:1">
       <c r="A1142">
-        <v>746439</v>
+        <v>746752</v>
       </c>
     </row>
     <row r="1143" spans="1:1">
       <c r="A1143">
-        <v>746752</v>
+        <v>747341</v>
       </c>
     </row>
     <row r="1144" spans="1:1">
       <c r="A1144">
-        <v>747341</v>
+        <v>747517</v>
       </c>
     </row>
     <row r="1145" spans="1:1">
       <c r="A1145">
-        <v>747517</v>
+        <v>747999</v>
       </c>
     </row>
     <row r="1146" spans="1:1">
       <c r="A1146">
-        <v>747999</v>
+        <v>748478</v>
       </c>
     </row>
     <row r="1147" spans="1:1">
       <c r="A1147">
-        <v>748478</v>
+        <v>748675</v>
       </c>
     </row>
     <row r="1148" spans="1:1">
       <c r="A1148">
-        <v>748675</v>
+        <v>749126</v>
       </c>
     </row>
     <row r="1149" spans="1:1">
       <c r="A1149">
-        <v>749126</v>
+        <v>749974</v>
       </c>
     </row>
     <row r="1150" spans="1:1">
       <c r="A1150">
-        <v>749974</v>
+        <v>750344</v>
       </c>
     </row>
     <row r="1151" spans="1:1">
       <c r="A1151">
-        <v>750344</v>
+        <v>751021</v>
       </c>
     </row>
     <row r="1152" spans="1:1">
       <c r="A1152">
-        <v>751021</v>
+        <v>751446</v>
       </c>
     </row>
     <row r="1153" spans="1:1">
       <c r="A1153">
-        <v>751446</v>
+        <v>751775</v>
       </c>
     </row>
     <row r="1154" spans="1:1">
       <c r="A1154">
-        <v>751775</v>
+        <v>752094</v>
       </c>
     </row>
     <row r="1155" spans="1:1">
       <c r="A1155">
-        <v>752094</v>
+        <v>752518</v>
       </c>
     </row>
     <row r="1156" spans="1:1">
       <c r="A1156">
-        <v>752518</v>
+        <v>753195</v>
       </c>
     </row>
     <row r="1157" spans="1:1">
       <c r="A1157">
-        <v>753195</v>
+        <v>753209</v>
       </c>
     </row>
     <row r="1158" spans="1:1">
       <c r="A1158">
-        <v>753209</v>
+        <v>755142</v>
       </c>
     </row>
     <row r="1159" spans="1:1">
       <c r="A1159">
-        <v>755142</v>
+        <v>755247</v>
       </c>
     </row>
     <row r="1160" spans="1:1">
       <c r="A1160">
-        <v>755247</v>
+        <v>755248</v>
       </c>
     </row>
     <row r="1161" spans="1:1">
       <c r="A1161">
-        <v>755248</v>
+        <v>755702</v>
       </c>
     </row>
     <row r="1162" spans="1:1">
@@ -6207,562 +6207,562 @@
     </row>
     <row r="1166" spans="1:1">
       <c r="A1166">
-        <v>758679</v>
+        <v>759213</v>
       </c>
     </row>
     <row r="1167" spans="1:1">
       <c r="A1167">
-        <v>759172</v>
+        <v>759903</v>
       </c>
     </row>
     <row r="1168" spans="1:1">
       <c r="A1168">
-        <v>759213</v>
+        <v>761887</v>
       </c>
     </row>
     <row r="1169" spans="1:1">
       <c r="A1169">
-        <v>759903</v>
+        <v>762514</v>
       </c>
     </row>
     <row r="1170" spans="1:1">
       <c r="A1170">
-        <v>761887</v>
+        <v>763349</v>
       </c>
     </row>
     <row r="1171" spans="1:1">
       <c r="A1171">
-        <v>762514</v>
+        <v>763644</v>
       </c>
     </row>
     <row r="1172" spans="1:1">
       <c r="A1172">
-        <v>763349</v>
+        <v>763892</v>
       </c>
     </row>
     <row r="1173" spans="1:1">
       <c r="A1173">
-        <v>763644</v>
+        <v>765274</v>
       </c>
     </row>
     <row r="1174" spans="1:1">
       <c r="A1174">
-        <v>763892</v>
+        <v>766321</v>
       </c>
     </row>
     <row r="1175" spans="1:1">
       <c r="A1175">
-        <v>765274</v>
+        <v>766720</v>
       </c>
     </row>
     <row r="1176" spans="1:1">
       <c r="A1176">
-        <v>766140</v>
+        <v>766944</v>
       </c>
     </row>
     <row r="1177" spans="1:1">
       <c r="A1177">
-        <v>766321</v>
+        <v>767117</v>
       </c>
     </row>
     <row r="1178" spans="1:1">
       <c r="A1178">
-        <v>766720</v>
+        <v>767248</v>
       </c>
     </row>
     <row r="1179" spans="1:1">
       <c r="A1179">
-        <v>766944</v>
+        <v>767780</v>
       </c>
     </row>
     <row r="1180" spans="1:1">
       <c r="A1180">
-        <v>767117</v>
+        <v>768370</v>
       </c>
     </row>
     <row r="1181" spans="1:1">
       <c r="A1181">
-        <v>767248</v>
+        <v>769519</v>
       </c>
     </row>
     <row r="1182" spans="1:1">
       <c r="A1182">
-        <v>767506</v>
+        <v>771730</v>
       </c>
     </row>
     <row r="1183" spans="1:1">
       <c r="A1183">
-        <v>767780</v>
+        <v>773145</v>
       </c>
     </row>
     <row r="1184" spans="1:1">
       <c r="A1184">
-        <v>768370</v>
+        <v>774281</v>
       </c>
     </row>
     <row r="1185" spans="1:1">
       <c r="A1185">
-        <v>769519</v>
+        <v>777093</v>
       </c>
     </row>
     <row r="1186" spans="1:1">
       <c r="A1186">
-        <v>771730</v>
+        <v>777674</v>
       </c>
     </row>
     <row r="1187" spans="1:1">
       <c r="A1187">
-        <v>773145</v>
+        <v>781243</v>
       </c>
     </row>
     <row r="1188" spans="1:1">
       <c r="A1188">
-        <v>774281</v>
+        <v>781963</v>
       </c>
     </row>
     <row r="1189" spans="1:1">
       <c r="A1189">
-        <v>774628</v>
+        <v>782778</v>
       </c>
     </row>
     <row r="1190" spans="1:1">
       <c r="A1190">
-        <v>777093</v>
+        <v>783201</v>
       </c>
     </row>
     <row r="1191" spans="1:1">
       <c r="A1191">
-        <v>777674</v>
+        <v>784327</v>
       </c>
     </row>
     <row r="1192" spans="1:1">
       <c r="A1192">
-        <v>781243</v>
+        <v>786313</v>
       </c>
     </row>
     <row r="1193" spans="1:1">
       <c r="A1193">
-        <v>781963</v>
+        <v>796689</v>
       </c>
     </row>
     <row r="1194" spans="1:1">
       <c r="A1194">
-        <v>782778</v>
+        <v>802334</v>
       </c>
     </row>
     <row r="1195" spans="1:1">
       <c r="A1195">
-        <v>783201</v>
+        <v>806900</v>
       </c>
     </row>
     <row r="1196" spans="1:1">
       <c r="A1196">
-        <v>784327</v>
+        <v>806906</v>
       </c>
     </row>
     <row r="1197" spans="1:1">
       <c r="A1197">
-        <v>785916</v>
+        <v>807092</v>
       </c>
     </row>
     <row r="1198" spans="1:1">
       <c r="A1198">
-        <v>786313</v>
+        <v>812765</v>
       </c>
     </row>
     <row r="1199" spans="1:1">
       <c r="A1199">
-        <v>796689</v>
+        <v>815265</v>
       </c>
     </row>
     <row r="1200" spans="1:1">
       <c r="A1200">
-        <v>802334</v>
+        <v>817619</v>
       </c>
     </row>
     <row r="1201" spans="1:1">
       <c r="A1201">
-        <v>806900</v>
+        <v>825988</v>
       </c>
     </row>
     <row r="1202" spans="1:1">
       <c r="A1202">
-        <v>806906</v>
+        <v>828459</v>
       </c>
     </row>
     <row r="1203" spans="1:1">
       <c r="A1203">
-        <v>807092</v>
+        <v>830459</v>
       </c>
     </row>
     <row r="1204" spans="1:1">
       <c r="A1204">
-        <v>812765</v>
+        <v>832576</v>
       </c>
     </row>
     <row r="1205" spans="1:1">
       <c r="A1205">
-        <v>815265</v>
+        <v>839751</v>
       </c>
     </row>
     <row r="1206" spans="1:1">
       <c r="A1206">
-        <v>817619</v>
+        <v>842811</v>
       </c>
     </row>
     <row r="1207" spans="1:1">
       <c r="A1207">
-        <v>825988</v>
+        <v>844272</v>
       </c>
     </row>
     <row r="1208" spans="1:1">
       <c r="A1208">
-        <v>828459</v>
+        <v>844907</v>
       </c>
     </row>
     <row r="1209" spans="1:1">
       <c r="A1209">
-        <v>830459</v>
+        <v>850524</v>
       </c>
     </row>
     <row r="1210" spans="1:1">
       <c r="A1210">
-        <v>832576</v>
+        <v>851984</v>
       </c>
     </row>
     <row r="1211" spans="1:1">
       <c r="A1211">
-        <v>839751</v>
+        <v>852105</v>
       </c>
     </row>
     <row r="1212" spans="1:1">
       <c r="A1212">
-        <v>842811</v>
+        <v>852381</v>
       </c>
     </row>
     <row r="1213" spans="1:1">
       <c r="A1213">
-        <v>844272</v>
+        <v>852724</v>
       </c>
     </row>
     <row r="1214" spans="1:1">
       <c r="A1214">
-        <v>844907</v>
+        <v>852764</v>
       </c>
     </row>
     <row r="1215" spans="1:1">
       <c r="A1215">
-        <v>850524</v>
+        <v>852936</v>
       </c>
     </row>
     <row r="1216" spans="1:1">
       <c r="A1216">
-        <v>851984</v>
+        <v>855596</v>
       </c>
     </row>
     <row r="1217" spans="1:1">
       <c r="A1217">
-        <v>852105</v>
+        <v>856219</v>
       </c>
     </row>
     <row r="1218" spans="1:1">
       <c r="A1218">
-        <v>852381</v>
+        <v>857135</v>
       </c>
     </row>
     <row r="1219" spans="1:1">
       <c r="A1219">
-        <v>852724</v>
+        <v>857773</v>
       </c>
     </row>
     <row r="1220" spans="1:1">
       <c r="A1220">
-        <v>852764</v>
+        <v>858307</v>
       </c>
     </row>
     <row r="1221" spans="1:1">
       <c r="A1221">
-        <v>852936</v>
+        <v>858393</v>
       </c>
     </row>
     <row r="1222" spans="1:1">
       <c r="A1222">
-        <v>854643</v>
+        <v>858513</v>
       </c>
     </row>
     <row r="1223" spans="1:1">
       <c r="A1223">
-        <v>855596</v>
+        <v>860286</v>
       </c>
     </row>
     <row r="1224" spans="1:1">
       <c r="A1224">
-        <v>856219</v>
+        <v>860297</v>
       </c>
     </row>
     <row r="1225" spans="1:1">
       <c r="A1225">
-        <v>857135</v>
+        <v>861362</v>
       </c>
     </row>
     <row r="1226" spans="1:1">
       <c r="A1226">
-        <v>857773</v>
+        <v>861387</v>
       </c>
     </row>
     <row r="1227" spans="1:1">
       <c r="A1227">
-        <v>858307</v>
+        <v>862438</v>
       </c>
     </row>
     <row r="1228" spans="1:1">
       <c r="A1228">
-        <v>858393</v>
+        <v>863350</v>
       </c>
     </row>
     <row r="1229" spans="1:1">
       <c r="A1229">
-        <v>858513</v>
+        <v>863828</v>
       </c>
     </row>
     <row r="1230" spans="1:1">
       <c r="A1230">
-        <v>859153</v>
+        <v>864194</v>
       </c>
     </row>
     <row r="1231" spans="1:1">
       <c r="A1231">
-        <v>860286</v>
+        <v>866371</v>
       </c>
     </row>
     <row r="1232" spans="1:1">
       <c r="A1232">
-        <v>860297</v>
+        <v>866619</v>
       </c>
     </row>
     <row r="1233" spans="1:1">
       <c r="A1233">
-        <v>861362</v>
+        <v>867214</v>
       </c>
     </row>
     <row r="1234" spans="1:1">
       <c r="A1234">
-        <v>861387</v>
+        <v>868802</v>
       </c>
     </row>
     <row r="1235" spans="1:1">
       <c r="A1235">
-        <v>862438</v>
+        <v>869024</v>
       </c>
     </row>
     <row r="1236" spans="1:1">
       <c r="A1236">
-        <v>863350</v>
+        <v>869272</v>
       </c>
     </row>
     <row r="1237" spans="1:1">
       <c r="A1237">
-        <v>863828</v>
+        <v>869539</v>
       </c>
     </row>
     <row r="1238" spans="1:1">
       <c r="A1238">
-        <v>864194</v>
+        <v>870331</v>
       </c>
     </row>
     <row r="1239" spans="1:1">
       <c r="A1239">
-        <v>866371</v>
+        <v>870796</v>
       </c>
     </row>
     <row r="1240" spans="1:1">
       <c r="A1240">
-        <v>867214</v>
+        <v>871123</v>
       </c>
     </row>
     <row r="1241" spans="1:1">
       <c r="A1241">
-        <v>868802</v>
+        <v>871145</v>
       </c>
     </row>
     <row r="1242" spans="1:1">
       <c r="A1242">
-        <v>869024</v>
+        <v>872113</v>
       </c>
     </row>
     <row r="1243" spans="1:1">
       <c r="A1243">
-        <v>869272</v>
+        <v>873887</v>
       </c>
     </row>
     <row r="1244" spans="1:1">
       <c r="A1244">
-        <v>869539</v>
+        <v>873940</v>
       </c>
     </row>
     <row r="1245" spans="1:1">
       <c r="A1245">
-        <v>870331</v>
+        <v>874123</v>
       </c>
     </row>
     <row r="1246" spans="1:1">
       <c r="A1246">
-        <v>870796</v>
+        <v>874324</v>
       </c>
     </row>
     <row r="1247" spans="1:1">
       <c r="A1247">
-        <v>871123</v>
+        <v>875187</v>
       </c>
     </row>
     <row r="1248" spans="1:1">
       <c r="A1248">
-        <v>871145</v>
+        <v>877337</v>
       </c>
     </row>
     <row r="1249" spans="1:1">
       <c r="A1249">
-        <v>872113</v>
+        <v>877461</v>
       </c>
     </row>
     <row r="1250" spans="1:1">
       <c r="A1250">
-        <v>874324</v>
+        <v>879299</v>
       </c>
     </row>
     <row r="1251" spans="1:1">
       <c r="A1251">
-        <v>875187</v>
+        <v>879596</v>
       </c>
     </row>
     <row r="1252" spans="1:1">
       <c r="A1252">
-        <v>877337</v>
+        <v>880041</v>
       </c>
     </row>
     <row r="1253" spans="1:1">
       <c r="A1253">
-        <v>877461</v>
+        <v>880333</v>
       </c>
     </row>
     <row r="1254" spans="1:1">
       <c r="A1254">
-        <v>879299</v>
+        <v>880674</v>
       </c>
     </row>
     <row r="1255" spans="1:1">
       <c r="A1255">
-        <v>879596</v>
+        <v>881786</v>
       </c>
     </row>
     <row r="1256" spans="1:1">
       <c r="A1256">
-        <v>880041</v>
+        <v>881956</v>
       </c>
     </row>
     <row r="1257" spans="1:1">
       <c r="A1257">
-        <v>880333</v>
+        <v>882157</v>
       </c>
     </row>
     <row r="1258" spans="1:1">
       <c r="A1258">
-        <v>881956</v>
+        <v>883168</v>
       </c>
     </row>
     <row r="1259" spans="1:1">
       <c r="A1259">
-        <v>882157</v>
+        <v>885201</v>
       </c>
     </row>
     <row r="1260" spans="1:1">
       <c r="A1260">
-        <v>883168</v>
+        <v>885663</v>
       </c>
     </row>
     <row r="1261" spans="1:1">
       <c r="A1261">
-        <v>885201</v>
+        <v>885765</v>
       </c>
     </row>
     <row r="1262" spans="1:1">
       <c r="A1262">
-        <v>885663</v>
+        <v>888184</v>
       </c>
     </row>
     <row r="1263" spans="1:1">
       <c r="A1263">
-        <v>885765</v>
+        <v>888881</v>
       </c>
     </row>
     <row r="1264" spans="1:1">
       <c r="A1264">
-        <v>888184</v>
+        <v>890439</v>
       </c>
     </row>
     <row r="1265" spans="1:1">
       <c r="A1265">
-        <v>888881</v>
+        <v>892268</v>
       </c>
     </row>
     <row r="1266" spans="1:1">
       <c r="A1266">
-        <v>890439</v>
+        <v>892270</v>
       </c>
     </row>
     <row r="1267" spans="1:1">
       <c r="A1267">
-        <v>892268</v>
+        <v>893235</v>
       </c>
     </row>
     <row r="1268" spans="1:1">
       <c r="A1268">
-        <v>892270</v>
+        <v>894165</v>
       </c>
     </row>
     <row r="1269" spans="1:1">
       <c r="A1269">
-        <v>893235</v>
+        <v>895145</v>
       </c>
     </row>
     <row r="1270" spans="1:1">
       <c r="A1270">
-        <v>894165</v>
+        <v>895774</v>
       </c>
     </row>
     <row r="1271" spans="1:1">
       <c r="A1271">
-        <v>895145</v>
+        <v>897130</v>
       </c>
     </row>
     <row r="1272" spans="1:1">
       <c r="A1272">
-        <v>895774</v>
+        <v>899472</v>
       </c>
     </row>
     <row r="1273" spans="1:1">
       <c r="A1273">
-        <v>897130</v>
+        <v>899606</v>
       </c>
     </row>
     <row r="1274" spans="1:1">
       <c r="A1274">
-        <v>899606</v>
+        <v>900024</v>
       </c>
     </row>
     <row r="1275" spans="1:1">
       <c r="A1275">
-        <v>900024</v>
+        <v>902468</v>
       </c>
     </row>
     <row r="1276" spans="1:1">
       <c r="A1276">
-        <v>902468</v>
+        <v>904303</v>
       </c>
     </row>
     <row r="1277" spans="1:1">
       <c r="A1277">
-        <v>904303</v>
+        <v>905447</v>
       </c>
     </row>
     <row r="1278" spans="1:1">
@@ -6812,7 +6812,7 @@
     </row>
     <row r="1287" spans="1:1">
       <c r="A1287">
-        <v>918449</v>
+        <v>916751</v>
       </c>
     </row>
     <row r="1288" spans="1:1">
@@ -6822,76 +6822,61 @@
     </row>
     <row r="1289" spans="1:1">
       <c r="A1289">
-        <v>921684</v>
+        <v>922850</v>
       </c>
     </row>
     <row r="1290" spans="1:1">
       <c r="A1290">
-        <v>922850</v>
+        <v>924941</v>
       </c>
     </row>
     <row r="1291" spans="1:1">
       <c r="A1291">
-        <v>922975</v>
+        <v>926312</v>
       </c>
     </row>
     <row r="1292" spans="1:1">
       <c r="A1292">
-        <v>924941</v>
+        <v>932236</v>
       </c>
     </row>
     <row r="1293" spans="1:1">
       <c r="A1293">
-        <v>926312</v>
+        <v>934541</v>
       </c>
     </row>
     <row r="1294" spans="1:1">
       <c r="A1294">
-        <v>927933</v>
+        <v>936031</v>
       </c>
     </row>
     <row r="1295" spans="1:1">
       <c r="A1295">
-        <v>932236</v>
+        <v>938220</v>
       </c>
     </row>
     <row r="1296" spans="1:1">
       <c r="A1296">
-        <v>934541</v>
+        <v>938289</v>
       </c>
     </row>
     <row r="1297" spans="1:1">
       <c r="A1297">
-        <v>936031</v>
+        <v>938403</v>
       </c>
     </row>
     <row r="1298" spans="1:1">
       <c r="A1298">
-        <v>938220</v>
+        <v>940321</v>
       </c>
     </row>
     <row r="1299" spans="1:1">
       <c r="A1299">
-        <v>938289</v>
+        <v>942359</v>
       </c>
     </row>
     <row r="1300" spans="1:1">
       <c r="A1300">
-        <v>938403</v>
-      </c>
-    </row>
-    <row r="1301" spans="1:1">
-      <c r="A1301">
-        <v>940321</v>
-      </c>
-    </row>
-    <row r="1302" spans="1:1">
-      <c r="A1302">
-        <v>942359</v>
-      </c>
-    </row>
-    <row r="1303" spans="1:1">
-      <c r="A1303">
         <v>948922</v>
       </c>
     </row>
